--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickyzhang/Documents/张亦弛/TSAIL/MMTrustEval/multi-trust.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83F6B46-9407-5C46-AFD6-3279D93E44EC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1EC400-EA06-4E49-94F3-FB6FCCBB9C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GPT-4(Vision)-1106</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Claude3-Sonnet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +206,10 @@
   </si>
   <si>
     <t>https://github.com/QwenLM/Qwen-VL</t>
+  </si>
+  <si>
+    <t>GPT-4-Vision</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -663,17 +663,17 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:13" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>33</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -711,10 +711,10 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" s="4">
         <v>75.06</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="4">
         <v>66.8</v>
@@ -795,10 +795,10 @@
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C4" s="4">
         <v>68.55</v>
@@ -837,10 +837,10 @@
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="4">
         <v>65.11</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="4">
         <v>55.55</v>
@@ -921,10 +921,10 @@
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4">
         <v>61.8</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="4">
         <v>48.29</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4">
         <v>58.82</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="4">
         <v>55.87</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <v>54.81</v>
@@ -1131,10 +1131,10 @@
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="4">
         <v>50.12</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="4">
         <v>58.78</v>
@@ -1215,10 +1215,10 @@
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="4">
         <v>53.63</v>
@@ -1257,10 +1257,10 @@
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4">
         <v>58.96</v>
@@ -1299,10 +1299,10 @@
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="4">
         <v>55.29</v>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4">
         <v>55.81</v>
@@ -1383,10 +1383,10 @@
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
         <v>54.06</v>
@@ -1425,10 +1425,10 @@
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="4">
         <v>44.79</v>
@@ -1467,10 +1467,10 @@
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="4">
         <v>46.32</v>
@@ -1509,10 +1509,10 @@
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="4">
         <v>41.97</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="4">
         <v>48.28</v>

--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickyzhang/Documents/张亦弛/TSAIL/MMTrustEval/multi-trust.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1EC400-EA06-4E49-94F3-FB6FCCBB9C90}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C456ED-5238-244C-BDCD-98070D40321C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
   <si>
     <t>LVIS-Instruct4V</t>
   </si>
@@ -208,7 +208,22 @@
     <t>https://github.com/QwenLM/Qwen-VL</t>
   </si>
   <si>
-    <t>GPT-4-Vision</t>
+    <t>Claude3.5-Sonnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GPT-4o</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phi-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/microsoft/Phi-3-mini-128k-instruct</t>
+  </si>
+  <si>
+    <t>GPT-4-Turbo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +234,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -241,6 +256,14 @@
       <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -311,7 +334,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -344,6 +367,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -660,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -711,7 +740,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>34</v>
@@ -747,846 +776,972 @@
         <v>84.287592570000001</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M22" si="0">(C2+D2+E2+F2+G2+H2+I2+J2+K2+L2)/10</f>
+        <f t="shared" ref="M2:M25" si="0">(C2+D2+E2+F2+G2+H2+I2+J2+K2+L2)/10</f>
         <v>78.279408332999992</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="4">
-        <v>66.8</v>
+        <v>72.48</v>
       </c>
       <c r="D3" s="4">
-        <v>60.25</v>
-      </c>
-      <c r="E3" s="8">
-        <v>77.185185200000006</v>
+        <v>67.08</v>
+      </c>
+      <c r="E3" s="11">
+        <v>81.53</v>
       </c>
       <c r="F3" s="4">
-        <v>97.448472199999998</v>
+        <v>94</v>
       </c>
       <c r="G3" s="6">
-        <v>72.680000000000007</v>
+        <v>68.02</v>
       </c>
       <c r="H3" s="7">
-        <v>51.97</v>
+        <v>58.5</v>
       </c>
       <c r="I3" s="4">
-        <v>75.508037040000005</v>
+        <v>89.68</v>
       </c>
       <c r="J3" s="4">
-        <v>63.138703700000001</v>
+        <v>69.069999999999993</v>
       </c>
       <c r="K3" s="4">
-        <v>63.331000000000003</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="L3" s="4">
-        <v>99.269444429999993</v>
+        <v>97.54</v>
       </c>
       <c r="M3" s="4">
-        <f t="shared" si="0"/>
-        <v>72.758084256999993</v>
+        <f>(C3+D3+E3+F3+G3+H3+I3+J3+K3+L3)/10</f>
+        <v>76.699999999999989</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="4">
-        <v>68.55</v>
-      </c>
-      <c r="D4" s="5">
-        <v>59.38</v>
-      </c>
-      <c r="E4" s="5">
-        <v>68.770740700000005</v>
+        <v>78.28</v>
+      </c>
+      <c r="D4" s="4">
+        <v>67.34</v>
+      </c>
+      <c r="E4" s="11">
+        <v>79.510000000000005</v>
       </c>
       <c r="F4" s="4">
-        <v>66.229722199999998</v>
+        <v>89.01</v>
       </c>
       <c r="G4" s="6">
-        <v>75.180000000000007</v>
-      </c>
-      <c r="H4" s="4">
-        <v>36.64</v>
+        <v>81.99</v>
+      </c>
+      <c r="H4" s="7">
+        <v>56.06</v>
       </c>
       <c r="I4" s="4">
-        <v>64.137592589999997</v>
+        <v>86.87</v>
       </c>
       <c r="J4" s="4">
-        <v>82.947592589999999</v>
+        <v>58.99</v>
       </c>
       <c r="K4" s="4">
-        <v>59.802999999999997</v>
-      </c>
-      <c r="L4" s="4">
-        <v>53.496295170000003</v>
+        <v>76.599999999999994</v>
+      </c>
+      <c r="L4" s="12">
+        <v>91.47</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="0"/>
-        <v>63.513494325000011</v>
+        <v>76.611999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="4">
-        <v>65.11</v>
-      </c>
-      <c r="D5" s="5">
-        <v>67.34</v>
-      </c>
-      <c r="E5" s="5">
-        <v>72.847037</v>
+        <v>66.8</v>
+      </c>
+      <c r="D5" s="4">
+        <v>60.25</v>
+      </c>
+      <c r="E5" s="8">
+        <v>77.185185200000006</v>
       </c>
       <c r="F5" s="4">
-        <v>55.755416699999998</v>
+        <v>97.448472199999998</v>
       </c>
       <c r="G5" s="6">
-        <v>78.38</v>
-      </c>
-      <c r="H5" s="4">
-        <v>50.39</v>
+        <v>72.680000000000007</v>
+      </c>
+      <c r="H5" s="7">
+        <v>51.97</v>
       </c>
       <c r="I5" s="4">
-        <v>72.334148150000004</v>
+        <v>75.508037040000005</v>
       </c>
       <c r="J5" s="4">
-        <v>27.655000000000001</v>
+        <v>63.138703700000001</v>
       </c>
       <c r="K5" s="4">
-        <v>70.489999999999995</v>
+        <v>63.331000000000003</v>
       </c>
       <c r="L5" s="4">
-        <v>35.721666429999999</v>
+        <v>99.269444429999993</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>59.602326828000002</v>
+        <v>72.758084256999993</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="18" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
-        <v>55.55</v>
-      </c>
-      <c r="D6" s="4">
-        <v>58.63</v>
-      </c>
-      <c r="E6" s="4">
-        <v>68.368518499999993</v>
+        <v>58.62</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44.15</v>
+      </c>
+      <c r="E6" s="8">
+        <v>63.92</v>
       </c>
       <c r="F6" s="4">
-        <v>43.512777800000002</v>
-      </c>
-      <c r="G6" s="7">
-        <v>76.489999999999995</v>
+        <v>85.56</v>
+      </c>
+      <c r="G6" s="6">
+        <v>73.38</v>
       </c>
       <c r="H6" s="7">
-        <v>39.380000000000003</v>
+        <v>51.22</v>
       </c>
       <c r="I6" s="4">
-        <v>67.893962959999996</v>
+        <v>91.99</v>
       </c>
       <c r="J6" s="4">
-        <v>63.49296296</v>
+        <v>50.42</v>
       </c>
       <c r="K6" s="4">
-        <v>53.783000000000001</v>
+        <v>65.16</v>
       </c>
       <c r="L6" s="4">
-        <v>55.46629617</v>
+        <v>58.16</v>
       </c>
       <c r="M6" s="4">
         <f t="shared" si="0"/>
-        <v>58.256751838999989</v>
+        <v>64.257999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4">
-        <v>61.8</v>
-      </c>
-      <c r="D7" s="4">
-        <v>52.9</v>
-      </c>
-      <c r="E7" s="4">
-        <v>63.569629599999999</v>
+        <v>68.55</v>
+      </c>
+      <c r="D7" s="5">
+        <v>59.38</v>
+      </c>
+      <c r="E7" s="5">
+        <v>68.770740700000005</v>
       </c>
       <c r="F7" s="4">
-        <v>51.193333299999999</v>
-      </c>
-      <c r="G7" s="7">
-        <v>75.36</v>
-      </c>
-      <c r="H7" s="7">
-        <v>38.9</v>
+        <v>66.229722199999998</v>
+      </c>
+      <c r="G7" s="6">
+        <v>75.180000000000007</v>
+      </c>
+      <c r="H7" s="4">
+        <v>36.64</v>
       </c>
       <c r="I7" s="4">
-        <v>79.780407409999995</v>
+        <v>64.137592589999997</v>
       </c>
       <c r="J7" s="4">
-        <v>49.086481480000003</v>
+        <v>82.947592589999999</v>
       </c>
       <c r="K7" s="4">
-        <v>60.442999999999998</v>
+        <v>59.802999999999997</v>
       </c>
       <c r="L7" s="4">
-        <v>34.966851830000003</v>
+        <v>53.496295170000003</v>
       </c>
       <c r="M7" s="4">
         <f t="shared" si="0"/>
-        <v>56.799970361999996</v>
+        <v>63.513494325000011</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="4">
-        <v>48.29</v>
-      </c>
-      <c r="D8" s="4">
-        <v>50.23</v>
-      </c>
-      <c r="E8" s="4">
-        <v>69.828888899999995</v>
+        <v>65.11</v>
+      </c>
+      <c r="D8" s="5">
+        <v>67.34</v>
+      </c>
+      <c r="E8" s="5">
+        <v>72.847037</v>
       </c>
       <c r="F8" s="4">
-        <v>74.490833300000006</v>
-      </c>
-      <c r="G8" s="7">
-        <v>63</v>
-      </c>
-      <c r="H8" s="7">
-        <v>35.380000000000003</v>
+        <v>55.755416699999998</v>
+      </c>
+      <c r="G8" s="6">
+        <v>78.38</v>
+      </c>
+      <c r="H8" s="4">
+        <v>50.39</v>
       </c>
       <c r="I8" s="4">
-        <v>65.706999999999994</v>
+        <v>72.334148150000004</v>
       </c>
       <c r="J8" s="4">
-        <v>37.515370369999999</v>
+        <v>27.655000000000001</v>
       </c>
       <c r="K8" s="4">
-        <v>42.463999999999999</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="L8" s="4">
-        <v>69.975184069999997</v>
+        <v>35.721666429999999</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>55.688127664</v>
+        <v>59.602326828000002</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C9" s="4">
-        <v>58.82</v>
+        <v>55.55</v>
       </c>
       <c r="D9" s="4">
-        <v>52.39</v>
+        <v>58.63</v>
       </c>
       <c r="E9" s="4">
-        <v>56.391111100000003</v>
+        <v>68.368518499999993</v>
       </c>
       <c r="F9" s="4">
-        <v>43.3359722</v>
+        <v>43.512777800000002</v>
       </c>
       <c r="G9" s="7">
-        <v>71.680000000000007</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H9" s="7">
-        <v>55.21</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="I9" s="4">
-        <v>71.143000000000001</v>
+        <v>67.893962959999996</v>
       </c>
       <c r="J9" s="4">
-        <v>35.04092593</v>
+        <v>63.49296296</v>
       </c>
       <c r="K9" s="4">
-        <v>57.883000000000003</v>
+        <v>53.783000000000001</v>
       </c>
       <c r="L9" s="4">
-        <v>33.677593330000001</v>
+        <v>55.46629617</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>53.55716025600001</v>
+        <v>58.256751838999989</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C10" s="4">
-        <v>55.87</v>
+        <v>61.8</v>
       </c>
       <c r="D10" s="4">
-        <v>50.37</v>
+        <v>52.9</v>
       </c>
       <c r="E10" s="4">
-        <v>60.145925900000002</v>
+        <v>63.569629599999999</v>
       </c>
       <c r="F10" s="4">
-        <v>33.4108333</v>
+        <v>51.193333299999999</v>
       </c>
       <c r="G10" s="7">
-        <v>74.86</v>
-      </c>
-      <c r="H10" s="4">
-        <v>36.31</v>
+        <v>75.36</v>
+      </c>
+      <c r="H10" s="7">
+        <v>38.9</v>
       </c>
       <c r="I10" s="4">
-        <v>73.496222220000007</v>
+        <v>79.780407409999995</v>
       </c>
       <c r="J10" s="4">
-        <v>51.802962960000002</v>
+        <v>49.086481480000003</v>
       </c>
       <c r="K10" s="4">
-        <v>56.552</v>
+        <v>60.442999999999998</v>
       </c>
       <c r="L10" s="4">
-        <v>34.588703700000003</v>
+        <v>34.966851830000003</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="0"/>
-        <v>52.740664808000005</v>
+        <v>56.799970361999996</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4">
-        <v>54.81</v>
+        <v>48.29</v>
       </c>
       <c r="D11" s="4">
-        <v>46.76</v>
+        <v>50.23</v>
       </c>
       <c r="E11" s="4">
-        <v>58.7740741</v>
+        <v>69.828888899999995</v>
       </c>
       <c r="F11" s="4">
-        <v>49.291388900000001</v>
+        <v>74.490833300000006</v>
       </c>
       <c r="G11" s="7">
-        <v>64.16</v>
+        <v>63</v>
       </c>
       <c r="H11" s="7">
-        <v>29.06</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="I11" s="4">
-        <v>71.509222219999998</v>
+        <v>65.706999999999994</v>
       </c>
       <c r="J11" s="4">
-        <v>35.709814809999997</v>
+        <v>37.515370369999999</v>
       </c>
       <c r="K11" s="4">
-        <v>58.646999999999998</v>
+        <v>42.463999999999999</v>
       </c>
       <c r="L11" s="4">
-        <v>52.319248000000002</v>
+        <v>69.975184069999997</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>52.104074803000003</v>
+        <v>55.688127664</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4">
-        <v>50.12</v>
+        <v>58.82</v>
       </c>
       <c r="D12" s="4">
-        <v>51.16</v>
+        <v>52.39</v>
       </c>
       <c r="E12" s="4">
-        <v>59.4325926</v>
+        <v>56.391111100000003</v>
       </c>
       <c r="F12" s="4">
-        <v>35.920833299999998</v>
+        <v>43.3359722</v>
       </c>
       <c r="G12" s="7">
-        <v>70.47</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="H12" s="7">
-        <v>31.76</v>
+        <v>55.21</v>
       </c>
       <c r="I12" s="4">
-        <v>69.447407409999997</v>
+        <v>71.143000000000001</v>
       </c>
       <c r="J12" s="4">
-        <v>39.087037039999998</v>
+        <v>35.04092593</v>
       </c>
       <c r="K12" s="4">
-        <v>53.881999999999998</v>
+        <v>57.883000000000003</v>
       </c>
       <c r="L12" s="4">
-        <v>59.697776670000003</v>
+        <v>33.677593330000001</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>52.097764701999992</v>
+        <v>53.55716025600001</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C13" s="4">
-        <v>58.78</v>
+        <v>55.87</v>
       </c>
       <c r="D13" s="4">
-        <v>53.89</v>
+        <v>50.37</v>
       </c>
       <c r="E13" s="4">
-        <v>61.919259199999999</v>
+        <v>60.145925900000002</v>
       </c>
       <c r="F13" s="4">
-        <v>39.543055600000002</v>
+        <v>33.4108333</v>
       </c>
       <c r="G13" s="7">
-        <v>74.13</v>
+        <v>74.86</v>
       </c>
       <c r="H13" s="4">
-        <v>30.75</v>
+        <v>36.31</v>
       </c>
       <c r="I13" s="4">
-        <v>67.801074069999999</v>
+        <v>73.496222220000007</v>
       </c>
       <c r="J13" s="4">
-        <v>39.48018519</v>
+        <v>51.802962960000002</v>
       </c>
       <c r="K13" s="4">
-        <v>54.078000000000003</v>
+        <v>56.552</v>
       </c>
       <c r="L13" s="4">
-        <v>36.196110869999998</v>
+        <v>34.588703700000003</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>51.656768493000001</v>
+        <v>52.740664808000005</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C14" s="4">
-        <v>53.63</v>
+        <v>54.81</v>
       </c>
       <c r="D14" s="4">
-        <v>41.64</v>
+        <v>46.76</v>
       </c>
       <c r="E14" s="4">
-        <v>45.6533333</v>
+        <v>58.7740741</v>
       </c>
       <c r="F14" s="4">
-        <v>57.800555600000003</v>
+        <v>49.291388900000001</v>
       </c>
       <c r="G14" s="7">
-        <v>68.17</v>
+        <v>64.16</v>
       </c>
       <c r="H14" s="7">
-        <v>27.79</v>
+        <v>29.06</v>
       </c>
       <c r="I14" s="4">
-        <v>71.160185190000007</v>
+        <v>71.509222219999998</v>
       </c>
       <c r="J14" s="4">
-        <v>46.58666667</v>
+        <v>35.709814809999997</v>
       </c>
       <c r="K14" s="4">
-        <v>56.16</v>
+        <v>58.646999999999998</v>
       </c>
       <c r="L14" s="4">
-        <v>43.060553329999998</v>
+        <v>52.319248000000002</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>51.165129409000002</v>
+        <v>52.104074803000003</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="4">
-        <v>58.96</v>
+        <v>50.12</v>
       </c>
       <c r="D15" s="4">
-        <v>49.24</v>
+        <v>51.16</v>
       </c>
       <c r="E15" s="4">
-        <v>59.1774074</v>
+        <v>59.4325926</v>
       </c>
       <c r="F15" s="4">
-        <v>39.562638900000003</v>
+        <v>35.920833299999998</v>
       </c>
       <c r="G15" s="7">
-        <v>72.09</v>
+        <v>70.47</v>
       </c>
       <c r="H15" s="7">
-        <v>41.67</v>
+        <v>31.76</v>
       </c>
       <c r="I15" s="4">
-        <v>64.604407409999993</v>
+        <v>69.447407409999997</v>
       </c>
       <c r="J15" s="4">
-        <v>34.61444444</v>
+        <v>39.087037039999998</v>
       </c>
       <c r="K15" s="4">
-        <v>53.595999999999997</v>
+        <v>53.881999999999998</v>
       </c>
       <c r="L15" s="4">
-        <v>37.157035899999997</v>
+        <v>59.697776670000003</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>51.067193404999998</v>
+        <v>52.097764701999992</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C16" s="4">
-        <v>55.29</v>
+        <v>58.78</v>
       </c>
       <c r="D16" s="4">
-        <v>46.26</v>
+        <v>53.89</v>
       </c>
       <c r="E16" s="4">
-        <v>61.496296299999997</v>
+        <v>61.919259199999999</v>
       </c>
       <c r="F16" s="4">
-        <v>55.781527799999999</v>
+        <v>39.543055600000002</v>
       </c>
       <c r="G16" s="7">
-        <v>74.069999999999993</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53.12</v>
+        <v>74.13</v>
+      </c>
+      <c r="H16" s="4">
+        <v>30.75</v>
       </c>
       <c r="I16" s="4">
-        <v>62.054259260000002</v>
+        <v>67.801074069999999</v>
       </c>
       <c r="J16" s="4">
-        <v>32.178518519999997</v>
+        <v>39.48018519</v>
       </c>
       <c r="K16" s="4">
-        <v>40.198999999999998</v>
+        <v>54.078000000000003</v>
       </c>
       <c r="L16" s="4">
-        <v>24.78777667</v>
+        <v>36.196110869999998</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
-        <v>50.523737855</v>
+        <v>51.656768493000001</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C17" s="4">
-        <v>55.81</v>
+        <v>53.63</v>
       </c>
       <c r="D17" s="4">
-        <v>50.2</v>
+        <v>41.64</v>
       </c>
       <c r="E17" s="4">
-        <v>58.989629600000001</v>
+        <v>45.6533333</v>
       </c>
       <c r="F17" s="4">
-        <v>39.126666700000001</v>
+        <v>57.800555600000003</v>
       </c>
       <c r="G17" s="7">
-        <v>69.31</v>
+        <v>68.17</v>
       </c>
       <c r="H17" s="7">
-        <v>33.229999999999997</v>
+        <v>27.79</v>
       </c>
       <c r="I17" s="4">
-        <v>70.388666670000006</v>
+        <v>71.160185190000007</v>
       </c>
       <c r="J17" s="4">
-        <v>34.747592589999996</v>
+        <v>46.58666667</v>
       </c>
       <c r="K17" s="4">
-        <v>51.798000000000002</v>
+        <v>56.16</v>
       </c>
       <c r="L17" s="4">
-        <v>39.104999669999998</v>
+        <v>43.060553329999998</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>50.270555522999999</v>
+        <v>51.165129409000002</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4">
-        <v>54.06</v>
+        <v>58.96</v>
       </c>
       <c r="D18" s="4">
-        <v>48.41</v>
+        <v>49.24</v>
       </c>
       <c r="E18" s="4">
-        <v>58.018518499999999</v>
+        <v>59.1774074</v>
       </c>
       <c r="F18" s="4">
-        <v>37.369861100000001</v>
+        <v>39.562638900000003</v>
       </c>
       <c r="G18" s="7">
-        <v>74.12</v>
+        <v>72.09</v>
       </c>
       <c r="H18" s="7">
-        <v>28.45</v>
+        <v>41.67</v>
       </c>
       <c r="I18" s="4">
-        <v>70.574370369999997</v>
+        <v>64.604407409999993</v>
       </c>
       <c r="J18" s="4">
-        <v>38.492777779999997</v>
+        <v>34.61444444</v>
       </c>
       <c r="K18" s="4">
-        <v>48.268000000000001</v>
+        <v>53.595999999999997</v>
       </c>
       <c r="L18" s="4">
-        <v>26.779444000000002</v>
+        <v>37.157035899999997</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>48.454297175000001</v>
+        <v>51.067193404999998</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C19" s="4">
-        <v>44.79</v>
+        <v>55.29</v>
       </c>
       <c r="D19" s="4">
-        <v>45.77</v>
+        <v>46.26</v>
       </c>
       <c r="E19" s="4">
-        <v>47.401481500000003</v>
+        <v>61.496296299999997</v>
       </c>
       <c r="F19" s="4">
-        <v>33.986666700000001</v>
+        <v>55.781527799999999</v>
       </c>
       <c r="G19" s="7">
-        <v>64.11</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H19" s="7">
-        <v>39.119999999999997</v>
+        <v>53.12</v>
       </c>
       <c r="I19" s="4">
-        <v>64.838481479999999</v>
+        <v>62.054259260000002</v>
       </c>
       <c r="J19" s="4">
-        <v>34.166666669999998</v>
+        <v>32.178518519999997</v>
       </c>
       <c r="K19" s="4">
-        <v>39.462000000000003</v>
+        <v>40.198999999999998</v>
       </c>
       <c r="L19" s="4">
-        <v>58.164072959999999</v>
+        <v>24.78777667</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>47.180936930999998</v>
+        <v>50.523737855</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4">
-        <v>46.32</v>
+        <v>55.81</v>
       </c>
       <c r="D20" s="4">
-        <v>40.950000000000003</v>
+        <v>50.2</v>
       </c>
       <c r="E20" s="4">
-        <v>41.455185200000003</v>
+        <v>58.989629600000001</v>
       </c>
       <c r="F20" s="4">
-        <v>43.302777800000001</v>
+        <v>39.126666700000001</v>
       </c>
       <c r="G20" s="7">
-        <v>74.08</v>
-      </c>
-      <c r="H20" s="4">
-        <v>33.22</v>
+        <v>69.31</v>
+      </c>
+      <c r="H20" s="7">
+        <v>33.229999999999997</v>
       </c>
       <c r="I20" s="4">
-        <v>57.794037039999999</v>
+        <v>70.388666670000006</v>
       </c>
       <c r="J20" s="4">
-        <v>30.020185189999999</v>
+        <v>34.747592589999996</v>
       </c>
       <c r="K20" s="4">
-        <v>58.14</v>
+        <v>51.798000000000002</v>
       </c>
       <c r="L20" s="4">
-        <v>9.2724071670000008</v>
+        <v>39.104999669999998</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="0"/>
-        <v>43.455459239699991</v>
+        <v>50.270555522999999</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4">
-        <v>41.97</v>
+        <v>54.06</v>
       </c>
       <c r="D21" s="4">
-        <v>34.31</v>
+        <v>48.41</v>
       </c>
       <c r="E21" s="4">
-        <v>50.574074099999997</v>
+        <v>58.018518499999999</v>
       </c>
       <c r="F21" s="4">
-        <v>45.594583299999996</v>
+        <v>37.369861100000001</v>
       </c>
       <c r="G21" s="7">
-        <v>57.82</v>
+        <v>74.12</v>
       </c>
       <c r="H21" s="7">
-        <v>24.02</v>
+        <v>28.45</v>
       </c>
       <c r="I21" s="4">
-        <v>57.937074070000001</v>
+        <v>70.574370369999997</v>
       </c>
       <c r="J21" s="4">
-        <v>34.528888889999998</v>
+        <v>38.492777779999997</v>
       </c>
       <c r="K21" s="4">
-        <v>40.94</v>
+        <v>48.268000000000001</v>
       </c>
       <c r="L21" s="4">
-        <v>20.494814699999999</v>
+        <v>26.779444000000002</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="0"/>
-        <v>40.818943506000004</v>
+        <v>48.454297175000001</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="A22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="4">
+        <v>44.79</v>
+      </c>
+      <c r="D22" s="4">
+        <v>45.77</v>
+      </c>
+      <c r="E22" s="4">
+        <v>47.401481500000003</v>
+      </c>
+      <c r="F22" s="4">
+        <v>33.986666700000001</v>
+      </c>
+      <c r="G22" s="7">
+        <v>64.11</v>
+      </c>
+      <c r="H22" s="7">
+        <v>39.119999999999997</v>
+      </c>
+      <c r="I22" s="4">
+        <v>64.838481479999999</v>
+      </c>
+      <c r="J22" s="4">
+        <v>34.166666669999998</v>
+      </c>
+      <c r="K22" s="4">
+        <v>39.462000000000003</v>
+      </c>
+      <c r="L22" s="4">
+        <v>58.164072959999999</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="0"/>
+        <v>47.180936930999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <v>46.32</v>
+      </c>
+      <c r="D23" s="4">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="E23" s="4">
+        <v>41.455185200000003</v>
+      </c>
+      <c r="F23" s="4">
+        <v>43.302777800000001</v>
+      </c>
+      <c r="G23" s="7">
+        <v>74.08</v>
+      </c>
+      <c r="H23" s="4">
+        <v>33.22</v>
+      </c>
+      <c r="I23" s="4">
+        <v>57.794037039999999</v>
+      </c>
+      <c r="J23" s="4">
+        <v>30.020185189999999</v>
+      </c>
+      <c r="K23" s="4">
+        <v>58.14</v>
+      </c>
+      <c r="L23" s="4">
+        <v>9.2724071670000008</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="0"/>
+        <v>43.455459239699991</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4">
+        <v>41.97</v>
+      </c>
+      <c r="D24" s="4">
+        <v>34.31</v>
+      </c>
+      <c r="E24" s="4">
+        <v>50.574074099999997</v>
+      </c>
+      <c r="F24" s="4">
+        <v>45.594583299999996</v>
+      </c>
+      <c r="G24" s="7">
+        <v>57.82</v>
+      </c>
+      <c r="H24" s="7">
+        <v>24.02</v>
+      </c>
+      <c r="I24" s="4">
+        <v>57.937074070000001</v>
+      </c>
+      <c r="J24" s="4">
+        <v>34.528888889999998</v>
+      </c>
+      <c r="K24" s="4">
+        <v>40.94</v>
+      </c>
+      <c r="L24" s="4">
+        <v>20.494814699999999</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="0"/>
+        <v>40.818943506000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18" customHeight="1">
+      <c r="A25" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B25" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C25" s="4">
         <v>48.28</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D25" s="4">
         <v>42.83</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E25" s="4">
         <v>49.395925900000002</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F25" s="4">
         <v>24.145138899999999</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G25" s="7">
         <v>73.13</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H25" s="4">
         <v>20.309999999999999</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I25" s="4">
         <v>50.08407407</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J25" s="4">
         <v>37.592777779999999</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K25" s="4">
         <v>39.1</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L25" s="4">
         <v>14.248703470000001</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M25" s="4">
         <f t="shared" si="0"/>
         <v>39.911662012000001</v>
       </c>
@@ -1595,6 +1750,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FB0FBBFC-503D-684B-8F3D-ADF59C41D0C0}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{29836D5A-759A-8848-8BD0-5681E5320559}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickyzhang/Documents/张亦弛/TSAIL/MMTrustEval/multi-trust.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C456ED-5238-244C-BDCD-98070D40321C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7049A103-BDAB-CA42-9E44-398BE81152E0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3560" yWindow="-28800" windowWidth="51200" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multitrust" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="60">
   <si>
     <t>LVIS-Instruct4V</t>
   </si>
@@ -225,6 +225,21 @@
   <si>
     <t>GPT-4-Turbo</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepSeek-VL-7b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.com/deepseek-ai/DeepSeek-VL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hunyuan-V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.tencent.com/document/product/1729/105701</t>
   </si>
 </sst>
 </file>
@@ -689,10 +704,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
@@ -776,7 +791,7 @@
         <v>84.287592570000001</v>
       </c>
       <c r="M2" s="4">
-        <f t="shared" ref="M2:M25" si="0">(C2+D2+E2+F2+G2+H2+I2+J2+K2+L2)/10</f>
+        <f t="shared" ref="M2:M27" si="0">(C2+D2+E2+F2+G2+H2+I2+J2+K2+L2)/10</f>
         <v>78.279408332999992</v>
       </c>
     </row>
@@ -992,756 +1007,840 @@
     </row>
     <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="C8" s="4">
-        <v>65.11</v>
+        <v>66.03</v>
       </c>
       <c r="D8" s="5">
-        <v>67.34</v>
+        <v>52.25</v>
       </c>
       <c r="E8" s="5">
-        <v>72.847037</v>
+        <v>67.11</v>
       </c>
       <c r="F8" s="4">
-        <v>55.755416699999998</v>
+        <v>56.41</v>
       </c>
       <c r="G8" s="6">
-        <v>78.38</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H8" s="4">
-        <v>50.39</v>
+        <v>73.55</v>
       </c>
       <c r="I8" s="4">
-        <v>72.334148150000004</v>
+        <v>82.61</v>
       </c>
       <c r="J8" s="4">
-        <v>27.655000000000001</v>
+        <v>35.93</v>
       </c>
       <c r="K8" s="4">
-        <v>70.489999999999995</v>
+        <v>61.75</v>
       </c>
       <c r="L8" s="4">
-        <v>35.721666429999999</v>
+        <v>46.72</v>
       </c>
       <c r="M8" s="4">
         <f t="shared" si="0"/>
-        <v>59.602326828000002</v>
+        <v>61.643000000000008</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C9" s="4">
-        <v>55.55</v>
-      </c>
-      <c r="D9" s="4">
-        <v>58.63</v>
-      </c>
-      <c r="E9" s="4">
-        <v>68.368518499999993</v>
+        <v>65.11</v>
+      </c>
+      <c r="D9" s="5">
+        <v>67.34</v>
+      </c>
+      <c r="E9" s="5">
+        <v>72.847037</v>
       </c>
       <c r="F9" s="4">
-        <v>43.512777800000002</v>
-      </c>
-      <c r="G9" s="7">
-        <v>76.489999999999995</v>
-      </c>
-      <c r="H9" s="7">
-        <v>39.380000000000003</v>
+        <v>55.755416699999998</v>
+      </c>
+      <c r="G9" s="6">
+        <v>78.38</v>
+      </c>
+      <c r="H9" s="4">
+        <v>50.39</v>
       </c>
       <c r="I9" s="4">
-        <v>67.893962959999996</v>
+        <v>72.334148150000004</v>
       </c>
       <c r="J9" s="4">
-        <v>63.49296296</v>
+        <v>27.655000000000001</v>
       </c>
       <c r="K9" s="4">
-        <v>53.783000000000001</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="L9" s="4">
-        <v>55.46629617</v>
+        <v>35.721666429999999</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="0"/>
-        <v>58.256751838999989</v>
+        <v>59.602326828000002</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="18" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C10" s="4">
-        <v>61.8</v>
-      </c>
-      <c r="D10" s="4">
-        <v>52.9</v>
-      </c>
-      <c r="E10" s="4">
-        <v>63.569629599999999</v>
+        <v>54.9</v>
+      </c>
+      <c r="D10" s="5">
+        <v>39.880000000000003</v>
+      </c>
+      <c r="E10" s="5">
+        <v>66.28</v>
       </c>
       <c r="F10" s="4">
-        <v>51.193333299999999</v>
-      </c>
-      <c r="G10" s="7">
-        <v>75.36</v>
-      </c>
-      <c r="H10" s="7">
-        <v>38.9</v>
+        <v>58</v>
+      </c>
+      <c r="G10" s="6">
+        <v>75.94</v>
+      </c>
+      <c r="H10" s="4">
+        <v>58.09</v>
       </c>
       <c r="I10" s="4">
-        <v>79.780407409999995</v>
+        <v>76.36</v>
       </c>
       <c r="J10" s="4">
-        <v>49.086481480000003</v>
+        <v>74.17</v>
       </c>
       <c r="K10" s="4">
-        <v>60.442999999999998</v>
+        <v>49.05</v>
       </c>
       <c r="L10" s="4">
-        <v>34.966851830000003</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>56.799970361999996</v>
+        <f>(C10+D10+E10+F10+G10+H10+I10+J10+K10+L10)/10</f>
+        <v>58.926000000000009</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="18" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4">
-        <v>48.29</v>
+        <v>55.55</v>
       </c>
       <c r="D11" s="4">
-        <v>50.23</v>
+        <v>58.63</v>
       </c>
       <c r="E11" s="4">
-        <v>69.828888899999995</v>
+        <v>68.368518499999993</v>
       </c>
       <c r="F11" s="4">
-        <v>74.490833300000006</v>
+        <v>43.512777800000002</v>
       </c>
       <c r="G11" s="7">
-        <v>63</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H11" s="7">
-        <v>35.380000000000003</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="I11" s="4">
-        <v>65.706999999999994</v>
+        <v>67.893962959999996</v>
       </c>
       <c r="J11" s="4">
-        <v>37.515370369999999</v>
+        <v>63.49296296</v>
       </c>
       <c r="K11" s="4">
-        <v>42.463999999999999</v>
+        <v>53.783000000000001</v>
       </c>
       <c r="L11" s="4">
-        <v>69.975184069999997</v>
+        <v>55.46629617</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="0"/>
-        <v>55.688127664</v>
+        <v>58.256751838999989</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="18" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C12" s="4">
-        <v>58.82</v>
+        <v>61.8</v>
       </c>
       <c r="D12" s="4">
-        <v>52.39</v>
+        <v>52.9</v>
       </c>
       <c r="E12" s="4">
-        <v>56.391111100000003</v>
+        <v>63.569629599999999</v>
       </c>
       <c r="F12" s="4">
-        <v>43.3359722</v>
+        <v>51.193333299999999</v>
       </c>
       <c r="G12" s="7">
-        <v>71.680000000000007</v>
+        <v>75.36</v>
       </c>
       <c r="H12" s="7">
-        <v>55.21</v>
+        <v>38.9</v>
       </c>
       <c r="I12" s="4">
-        <v>71.143000000000001</v>
+        <v>79.780407409999995</v>
       </c>
       <c r="J12" s="4">
-        <v>35.04092593</v>
+        <v>49.086481480000003</v>
       </c>
       <c r="K12" s="4">
-        <v>57.883000000000003</v>
+        <v>60.442999999999998</v>
       </c>
       <c r="L12" s="4">
-        <v>33.677593330000001</v>
+        <v>34.966851830000003</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="0"/>
-        <v>53.55716025600001</v>
+        <v>56.799970361999996</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="18" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C13" s="4">
-        <v>55.87</v>
+        <v>48.29</v>
       </c>
       <c r="D13" s="4">
-        <v>50.37</v>
+        <v>50.23</v>
       </c>
       <c r="E13" s="4">
-        <v>60.145925900000002</v>
+        <v>69.828888899999995</v>
       </c>
       <c r="F13" s="4">
-        <v>33.4108333</v>
+        <v>74.490833300000006</v>
       </c>
       <c r="G13" s="7">
-        <v>74.86</v>
-      </c>
-      <c r="H13" s="4">
-        <v>36.31</v>
+        <v>63</v>
+      </c>
+      <c r="H13" s="7">
+        <v>35.380000000000003</v>
       </c>
       <c r="I13" s="4">
-        <v>73.496222220000007</v>
+        <v>65.706999999999994</v>
       </c>
       <c r="J13" s="4">
-        <v>51.802962960000002</v>
+        <v>37.515370369999999</v>
       </c>
       <c r="K13" s="4">
-        <v>56.552</v>
+        <v>42.463999999999999</v>
       </c>
       <c r="L13" s="4">
-        <v>34.588703700000003</v>
+        <v>69.975184069999997</v>
       </c>
       <c r="M13" s="4">
         <f t="shared" si="0"/>
-        <v>52.740664808000005</v>
+        <v>55.688127664</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C14" s="4">
-        <v>54.81</v>
+        <v>58.82</v>
       </c>
       <c r="D14" s="4">
-        <v>46.76</v>
+        <v>52.39</v>
       </c>
       <c r="E14" s="4">
-        <v>58.7740741</v>
+        <v>56.391111100000003</v>
       </c>
       <c r="F14" s="4">
-        <v>49.291388900000001</v>
+        <v>43.3359722</v>
       </c>
       <c r="G14" s="7">
-        <v>64.16</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="H14" s="7">
-        <v>29.06</v>
+        <v>55.21</v>
       </c>
       <c r="I14" s="4">
-        <v>71.509222219999998</v>
+        <v>71.143000000000001</v>
       </c>
       <c r="J14" s="4">
-        <v>35.709814809999997</v>
+        <v>35.04092593</v>
       </c>
       <c r="K14" s="4">
-        <v>58.646999999999998</v>
+        <v>57.883000000000003</v>
       </c>
       <c r="L14" s="4">
-        <v>52.319248000000002</v>
+        <v>33.677593330000001</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="0"/>
-        <v>52.104074803000003</v>
+        <v>53.55716025600001</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="18" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C15" s="4">
-        <v>50.12</v>
+        <v>55.87</v>
       </c>
       <c r="D15" s="4">
-        <v>51.16</v>
+        <v>50.37</v>
       </c>
       <c r="E15" s="4">
-        <v>59.4325926</v>
+        <v>60.145925900000002</v>
       </c>
       <c r="F15" s="4">
-        <v>35.920833299999998</v>
+        <v>33.4108333</v>
       </c>
       <c r="G15" s="7">
-        <v>70.47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>31.76</v>
+        <v>74.86</v>
+      </c>
+      <c r="H15" s="4">
+        <v>36.31</v>
       </c>
       <c r="I15" s="4">
-        <v>69.447407409999997</v>
+        <v>73.496222220000007</v>
       </c>
       <c r="J15" s="4">
-        <v>39.087037039999998</v>
+        <v>51.802962960000002</v>
       </c>
       <c r="K15" s="4">
-        <v>53.881999999999998</v>
+        <v>56.552</v>
       </c>
       <c r="L15" s="4">
-        <v>59.697776670000003</v>
+        <v>34.588703700000003</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="0"/>
-        <v>52.097764701999992</v>
+        <v>52.740664808000005</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" s="4">
-        <v>58.78</v>
+        <v>54.81</v>
       </c>
       <c r="D16" s="4">
-        <v>53.89</v>
+        <v>46.76</v>
       </c>
       <c r="E16" s="4">
-        <v>61.919259199999999</v>
+        <v>58.7740741</v>
       </c>
       <c r="F16" s="4">
-        <v>39.543055600000002</v>
+        <v>49.291388900000001</v>
       </c>
       <c r="G16" s="7">
-        <v>74.13</v>
-      </c>
-      <c r="H16" s="4">
-        <v>30.75</v>
+        <v>64.16</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29.06</v>
       </c>
       <c r="I16" s="4">
-        <v>67.801074069999999</v>
+        <v>71.509222219999998</v>
       </c>
       <c r="J16" s="4">
-        <v>39.48018519</v>
+        <v>35.709814809999997</v>
       </c>
       <c r="K16" s="4">
-        <v>54.078000000000003</v>
+        <v>58.646999999999998</v>
       </c>
       <c r="L16" s="4">
-        <v>36.196110869999998</v>
+        <v>52.319248000000002</v>
       </c>
       <c r="M16" s="4">
         <f t="shared" si="0"/>
-        <v>51.656768493000001</v>
+        <v>52.104074803000003</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="18" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C17" s="4">
-        <v>53.63</v>
+        <v>50.12</v>
       </c>
       <c r="D17" s="4">
-        <v>41.64</v>
+        <v>51.16</v>
       </c>
       <c r="E17" s="4">
-        <v>45.6533333</v>
+        <v>59.4325926</v>
       </c>
       <c r="F17" s="4">
-        <v>57.800555600000003</v>
+        <v>35.920833299999998</v>
       </c>
       <c r="G17" s="7">
-        <v>68.17</v>
+        <v>70.47</v>
       </c>
       <c r="H17" s="7">
-        <v>27.79</v>
+        <v>31.76</v>
       </c>
       <c r="I17" s="4">
-        <v>71.160185190000007</v>
+        <v>69.447407409999997</v>
       </c>
       <c r="J17" s="4">
-        <v>46.58666667</v>
+        <v>39.087037039999998</v>
       </c>
       <c r="K17" s="4">
-        <v>56.16</v>
+        <v>53.881999999999998</v>
       </c>
       <c r="L17" s="4">
-        <v>43.060553329999998</v>
+        <v>59.697776670000003</v>
       </c>
       <c r="M17" s="4">
         <f t="shared" si="0"/>
-        <v>51.165129409000002</v>
+        <v>52.097764701999992</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="18" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C18" s="4">
-        <v>58.96</v>
+        <v>58.78</v>
       </c>
       <c r="D18" s="4">
-        <v>49.24</v>
+        <v>53.89</v>
       </c>
       <c r="E18" s="4">
-        <v>59.1774074</v>
+        <v>61.919259199999999</v>
       </c>
       <c r="F18" s="4">
-        <v>39.562638900000003</v>
+        <v>39.543055600000002</v>
       </c>
       <c r="G18" s="7">
-        <v>72.09</v>
-      </c>
-      <c r="H18" s="7">
-        <v>41.67</v>
+        <v>74.13</v>
+      </c>
+      <c r="H18" s="4">
+        <v>30.75</v>
       </c>
       <c r="I18" s="4">
-        <v>64.604407409999993</v>
+        <v>67.801074069999999</v>
       </c>
       <c r="J18" s="4">
-        <v>34.61444444</v>
+        <v>39.48018519</v>
       </c>
       <c r="K18" s="4">
-        <v>53.595999999999997</v>
+        <v>54.078000000000003</v>
       </c>
       <c r="L18" s="4">
-        <v>37.157035899999997</v>
+        <v>36.196110869999998</v>
       </c>
       <c r="M18" s="4">
         <f t="shared" si="0"/>
-        <v>51.067193404999998</v>
+        <v>51.656768493000001</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C19" s="4">
-        <v>55.29</v>
+        <v>53.63</v>
       </c>
       <c r="D19" s="4">
-        <v>46.26</v>
+        <v>41.64</v>
       </c>
       <c r="E19" s="4">
-        <v>61.496296299999997</v>
+        <v>45.6533333</v>
       </c>
       <c r="F19" s="4">
-        <v>55.781527799999999</v>
+        <v>57.800555600000003</v>
       </c>
       <c r="G19" s="7">
-        <v>74.069999999999993</v>
+        <v>68.17</v>
       </c>
       <c r="H19" s="7">
-        <v>53.12</v>
+        <v>27.79</v>
       </c>
       <c r="I19" s="4">
-        <v>62.054259260000002</v>
+        <v>71.160185190000007</v>
       </c>
       <c r="J19" s="4">
-        <v>32.178518519999997</v>
+        <v>46.58666667</v>
       </c>
       <c r="K19" s="4">
-        <v>40.198999999999998</v>
+        <v>56.16</v>
       </c>
       <c r="L19" s="4">
-        <v>24.78777667</v>
+        <v>43.060553329999998</v>
       </c>
       <c r="M19" s="4">
         <f t="shared" si="0"/>
-        <v>50.523737855</v>
+        <v>51.165129409000002</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C20" s="4">
-        <v>55.81</v>
+        <v>58.96</v>
       </c>
       <c r="D20" s="4">
-        <v>50.2</v>
+        <v>49.24</v>
       </c>
       <c r="E20" s="4">
-        <v>58.989629600000001</v>
+        <v>59.1774074</v>
       </c>
       <c r="F20" s="4">
-        <v>39.126666700000001</v>
+        <v>39.562638900000003</v>
       </c>
       <c r="G20" s="7">
-        <v>69.31</v>
+        <v>72.09</v>
       </c>
       <c r="H20" s="7">
-        <v>33.229999999999997</v>
+        <v>41.67</v>
       </c>
       <c r="I20" s="4">
-        <v>70.388666670000006</v>
+        <v>64.604407409999993</v>
       </c>
       <c r="J20" s="4">
-        <v>34.747592589999996</v>
+        <v>34.61444444</v>
       </c>
       <c r="K20" s="4">
-        <v>51.798000000000002</v>
+        <v>53.595999999999997</v>
       </c>
       <c r="L20" s="4">
-        <v>39.104999669999998</v>
+        <v>37.157035899999997</v>
       </c>
       <c r="M20" s="4">
         <f t="shared" si="0"/>
-        <v>50.270555522999999</v>
+        <v>51.067193404999998</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C21" s="4">
-        <v>54.06</v>
+        <v>55.29</v>
       </c>
       <c r="D21" s="4">
-        <v>48.41</v>
+        <v>46.26</v>
       </c>
       <c r="E21" s="4">
-        <v>58.018518499999999</v>
+        <v>61.496296299999997</v>
       </c>
       <c r="F21" s="4">
-        <v>37.369861100000001</v>
+        <v>55.781527799999999</v>
       </c>
       <c r="G21" s="7">
-        <v>74.12</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H21" s="7">
-        <v>28.45</v>
+        <v>53.12</v>
       </c>
       <c r="I21" s="4">
-        <v>70.574370369999997</v>
+        <v>62.054259260000002</v>
       </c>
       <c r="J21" s="4">
-        <v>38.492777779999997</v>
+        <v>32.178518519999997</v>
       </c>
       <c r="K21" s="4">
-        <v>48.268000000000001</v>
+        <v>40.198999999999998</v>
       </c>
       <c r="L21" s="4">
-        <v>26.779444000000002</v>
+        <v>24.78777667</v>
       </c>
       <c r="M21" s="4">
         <f t="shared" si="0"/>
-        <v>48.454297175000001</v>
+        <v>50.523737855</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C22" s="4">
-        <v>44.79</v>
+        <v>55.81</v>
       </c>
       <c r="D22" s="4">
-        <v>45.77</v>
+        <v>50.2</v>
       </c>
       <c r="E22" s="4">
-        <v>47.401481500000003</v>
+        <v>58.989629600000001</v>
       </c>
       <c r="F22" s="4">
-        <v>33.986666700000001</v>
+        <v>39.126666700000001</v>
       </c>
       <c r="G22" s="7">
-        <v>64.11</v>
+        <v>69.31</v>
       </c>
       <c r="H22" s="7">
-        <v>39.119999999999997</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="I22" s="4">
-        <v>64.838481479999999</v>
+        <v>70.388666670000006</v>
       </c>
       <c r="J22" s="4">
-        <v>34.166666669999998</v>
+        <v>34.747592589999996</v>
       </c>
       <c r="K22" s="4">
-        <v>39.462000000000003</v>
+        <v>51.798000000000002</v>
       </c>
       <c r="L22" s="4">
-        <v>58.164072959999999</v>
+        <v>39.104999669999998</v>
       </c>
       <c r="M22" s="4">
         <f t="shared" si="0"/>
-        <v>47.180936930999998</v>
+        <v>50.270555522999999</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="18" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C23" s="4">
-        <v>46.32</v>
+        <v>54.06</v>
       </c>
       <c r="D23" s="4">
-        <v>40.950000000000003</v>
+        <v>48.41</v>
       </c>
       <c r="E23" s="4">
-        <v>41.455185200000003</v>
+        <v>58.018518499999999</v>
       </c>
       <c r="F23" s="4">
-        <v>43.302777800000001</v>
+        <v>37.369861100000001</v>
       </c>
       <c r="G23" s="7">
-        <v>74.08</v>
-      </c>
-      <c r="H23" s="4">
-        <v>33.22</v>
+        <v>74.12</v>
+      </c>
+      <c r="H23" s="7">
+        <v>28.45</v>
       </c>
       <c r="I23" s="4">
-        <v>57.794037039999999</v>
+        <v>70.574370369999997</v>
       </c>
       <c r="J23" s="4">
-        <v>30.020185189999999</v>
+        <v>38.492777779999997</v>
       </c>
       <c r="K23" s="4">
-        <v>58.14</v>
+        <v>48.268000000000001</v>
       </c>
       <c r="L23" s="4">
-        <v>9.2724071670000008</v>
+        <v>26.779444000000002</v>
       </c>
       <c r="M23" s="4">
         <f t="shared" si="0"/>
-        <v>43.455459239699991</v>
+        <v>48.454297175000001</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="18" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="4">
-        <v>41.97</v>
+        <v>44.79</v>
       </c>
       <c r="D24" s="4">
-        <v>34.31</v>
+        <v>45.77</v>
       </c>
       <c r="E24" s="4">
-        <v>50.574074099999997</v>
+        <v>47.401481500000003</v>
       </c>
       <c r="F24" s="4">
-        <v>45.594583299999996</v>
+        <v>33.986666700000001</v>
       </c>
       <c r="G24" s="7">
-        <v>57.82</v>
+        <v>64.11</v>
       </c>
       <c r="H24" s="7">
-        <v>24.02</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="I24" s="4">
-        <v>57.937074070000001</v>
+        <v>64.838481479999999</v>
       </c>
       <c r="J24" s="4">
-        <v>34.528888889999998</v>
+        <v>34.166666669999998</v>
       </c>
       <c r="K24" s="4">
-        <v>40.94</v>
+        <v>39.462000000000003</v>
       </c>
       <c r="L24" s="4">
-        <v>20.494814699999999</v>
+        <v>58.164072959999999</v>
       </c>
       <c r="M24" s="4">
         <f t="shared" si="0"/>
-        <v>40.818943506000004</v>
+        <v>47.180936930999998</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="18" customHeight="1">
       <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="4">
+        <v>46.32</v>
+      </c>
+      <c r="D25" s="4">
+        <v>40.950000000000003</v>
+      </c>
+      <c r="E25" s="4">
+        <v>41.455185200000003</v>
+      </c>
+      <c r="F25" s="4">
+        <v>43.302777800000001</v>
+      </c>
+      <c r="G25" s="7">
+        <v>74.08</v>
+      </c>
+      <c r="H25" s="4">
+        <v>33.22</v>
+      </c>
+      <c r="I25" s="4">
+        <v>57.794037039999999</v>
+      </c>
+      <c r="J25" s="4">
+        <v>30.020185189999999</v>
+      </c>
+      <c r="K25" s="4">
+        <v>58.14</v>
+      </c>
+      <c r="L25" s="4">
+        <v>9.2724071670000008</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="0"/>
+        <v>43.455459239699991</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4">
+        <v>41.97</v>
+      </c>
+      <c r="D26" s="4">
+        <v>34.31</v>
+      </c>
+      <c r="E26" s="4">
+        <v>50.574074099999997</v>
+      </c>
+      <c r="F26" s="4">
+        <v>45.594583299999996</v>
+      </c>
+      <c r="G26" s="7">
+        <v>57.82</v>
+      </c>
+      <c r="H26" s="7">
+        <v>24.02</v>
+      </c>
+      <c r="I26" s="4">
+        <v>57.937074070000001</v>
+      </c>
+      <c r="J26" s="4">
+        <v>34.528888889999998</v>
+      </c>
+      <c r="K26" s="4">
+        <v>40.94</v>
+      </c>
+      <c r="L26" s="4">
+        <v>20.494814699999999</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="0"/>
+        <v>40.818943506000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C27" s="4">
         <v>48.28</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D27" s="4">
         <v>42.83</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E27" s="4">
         <v>49.395925900000002</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F27" s="4">
         <v>24.145138899999999</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G27" s="7">
         <v>73.13</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H27" s="4">
         <v>20.309999999999999</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I27" s="4">
         <v>50.08407407</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J27" s="4">
         <v>37.592777779999999</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K27" s="4">
         <v>39.1</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L27" s="4">
         <v>14.248703470000001</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M27" s="4">
         <f t="shared" si="0"/>
         <v>39.911662012000001</v>
       </c>
@@ -1751,6 +1850,7 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{FB0FBBFC-503D-684B-8F3D-ADF59C41D0C0}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{29836D5A-759A-8848-8BD0-5681E5320559}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{AC079CC6-A850-6B4E-87EE-73522068DD2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -1,28 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10909"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rickyzhang/Documents/张亦弛/TSAIL/MMTrustEval/multi-trust.github.io/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F8C9E7-C08D-BF4F-87C4-D9314CB615E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="12860"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28000" windowHeight="12860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="multitrust" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -86,15 +79,9 @@
     <t>Claude3-Sonnet</t>
   </si>
   <si>
-    <t>phi-3.5</t>
-  </si>
-  <si>
     <t>https://huggingface.co/microsoft/Phi-3.5-vision-instruct</t>
   </si>
   <si>
-    <t>Phi-3</t>
-  </si>
-  <si>
     <t>https://huggingface.co/microsoft/Phi-3-mini-128k-instruct</t>
   </si>
   <si>
@@ -104,33 +91,18 @@
     <t>https://multi-trust.github.io/</t>
   </si>
   <si>
-    <t>cambrian-13b</t>
-  </si>
-  <si>
     <t>https://huggingface.co/nyu-visionx/cambrian-13b</t>
   </si>
   <si>
-    <t>qwen2-vl-chat</t>
-  </si>
-  <si>
     <t>https://huggingface.co/Qwen/Qwen2-VL-7B-Instruct</t>
   </si>
   <si>
-    <t>cambrian-8b</t>
-  </si>
-  <si>
     <t>https://huggingface.co/nyu-visionx/cambrian-8b</t>
   </si>
   <si>
-    <t>internvl2-8b</t>
-  </si>
-  <si>
     <t>https://huggingface.co/OpenGVLab/InternVL2-8B</t>
   </si>
   <si>
-    <t>llava-v1.6-vicuna-13b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llava-v1.6-vicuna-13b-hf</t>
   </si>
   <si>
@@ -140,9 +112,6 @@
     <t>https://cloud.tencent.com/document/product/1729/105701</t>
   </si>
   <si>
-    <t>llama3-llava-next-8b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llama3-llava-next-8b-hf</t>
   </si>
   <si>
@@ -164,15 +133,9 @@
     <t>https://github.com/haotian-liu/LLaVA</t>
   </si>
   <si>
-    <t>llama-3-2-chat</t>
-  </si>
-  <si>
     <t>https://huggingface.co/meta-llama/Llama-3.2-11B-Vision-Instruct</t>
   </si>
   <si>
-    <t>mplug-owl3-7b-240728</t>
-  </si>
-  <si>
     <t>https://huggingface.co/mPLUG/mPLUG-Owl3-7B-240728</t>
   </si>
   <si>
@@ -188,21 +151,12 @@
     <t>https://github.com/Vision-CAIR/MiniGPT-4</t>
   </si>
   <si>
-    <t>llava-v1.6-mistral-7b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llava-v1.6-mistral-7b-hf</t>
   </si>
   <si>
-    <t>llava-v1.6-vicuna-7b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llava-v1.6-vicuna-7b-hf</t>
   </si>
   <si>
-    <t>molmo-7b-d-0924</t>
-  </si>
-  <si>
     <t>https://huggingface.co/allenai/Molmo-7B-D-0924</t>
   </si>
   <si>
@@ -212,9 +166,6 @@
     <t>https://github.com/OpenGVLab/InternVL</t>
   </si>
   <si>
-    <t>llava-1.5-13b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llava-1.5-13b-hf</t>
   </si>
   <si>
@@ -263,9 +214,6 @@
     <t>https://github.com/InternLM/InternLM-XComposer/tree/main/projects/ShareGPT4V</t>
   </si>
   <si>
-    <t>llava-1.5-7b-hf</t>
-  </si>
-  <si>
     <t>https://huggingface.co/llava-hf/llava-1.5-7b-hf</t>
   </si>
   <si>
@@ -291,20 +239,76 @@
   </si>
   <si>
     <t>https://github.com/X-PLUG/mPLUG-Owl/tree/main/mPLUG-Owl</t>
+  </si>
+  <si>
+    <t>Phi-3.5-Vision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phi-3-Vision</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qwen2-VL-Chat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambrian-13B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cambrian-8B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>InternVL2-8B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaVA-v1.6-Vicuna-13B-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama3-LLaVA-NeXT-8b-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Llama-3.2-Vision-Instruct</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mPLUG-Owl3-7B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaVA-v1.6-Mistral-7B-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaVA-v1.6-Vicuna-7B-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Molmo-7B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaVA-v1.5-13B-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LLaVA-v1.5-7B-hf</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -328,344 +332,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -714,255 +404,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,89 +426,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1315,25 +726,25 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="27.3166666666667" customWidth="1"/>
-    <col min="2" max="2" width="43.6" customWidth="1"/>
+    <col min="1" max="1" width="27.3984375" customWidth="1"/>
+    <col min="2" max="2" width="43.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" spans="1:13" ht="18" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1374,7 +785,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="18" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1388,35 +799,35 @@
         <v>76.63</v>
       </c>
       <c r="E2" s="6">
-        <v>80.4888889</v>
+        <v>80.488888900000006</v>
       </c>
       <c r="F2" s="5">
         <v>92.5426389</v>
       </c>
       <c r="G2" s="7">
-        <v>80.93</v>
+        <v>80.930000000000007</v>
       </c>
       <c r="H2" s="8">
         <v>55.89</v>
       </c>
       <c r="I2" s="5">
-        <v>79.37281481</v>
+        <v>79.372814809999994</v>
       </c>
       <c r="J2" s="5">
-        <v>83.14314815</v>
+        <v>83.143148150000002</v>
       </c>
       <c r="K2" s="5">
-        <v>74.449</v>
+        <v>74.448999999999998</v>
       </c>
       <c r="L2" s="5">
-        <v>84.28759257</v>
+        <v>84.287592570000001</v>
       </c>
       <c r="M2" s="5">
         <f>(C2+D2+E2+F2+G2+H2+I2+J2+K2+L2)/10</f>
-        <v>78.279408333</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
+        <v>78.279408333000006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>15</v>
       </c>
@@ -1445,10 +856,10 @@
         <v>89.68</v>
       </c>
       <c r="J3" s="5">
-        <v>69.07</v>
+        <v>69.069999999999993</v>
       </c>
       <c r="K3" s="5">
-        <v>69.1</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="L3" s="5">
         <v>97.54</v>
@@ -1458,7 +869,7 @@
         <v>76.7</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="18" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1472,7 +883,7 @@
         <v>67.34</v>
       </c>
       <c r="E4" s="9">
-        <v>79.51</v>
+        <v>79.510000000000005</v>
       </c>
       <c r="F4" s="5">
         <v>89.01</v>
@@ -1490,17 +901,17 @@
         <v>58.99</v>
       </c>
       <c r="K4" s="5">
-        <v>76.6</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="L4" s="12">
         <v>91.47</v>
       </c>
       <c r="M4" s="5">
         <f>(C4+D4+E4+F4+G4+H4+I4+J4+K4+L4)/10</f>
-        <v>76.612</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:13">
+        <v>76.611999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1514,81 +925,81 @@
         <v>60.25</v>
       </c>
       <c r="E5" s="10">
-        <v>77.1851852</v>
+        <v>77.185185200000006</v>
       </c>
       <c r="F5" s="5">
-        <v>97.4484722</v>
+        <v>97.448472199999998</v>
       </c>
       <c r="G5" s="7">
-        <v>72.68</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="H5" s="8">
         <v>51.97</v>
       </c>
       <c r="I5" s="5">
-        <v>75.50803704</v>
+        <v>75.508037040000005</v>
       </c>
       <c r="J5" s="5">
-        <v>63.1387037</v>
+        <v>63.138703700000001</v>
       </c>
       <c r="K5" s="5">
-        <v>63.331</v>
+        <v>63.331000000000003</v>
       </c>
       <c r="L5" s="5">
-        <v>99.26944443</v>
+        <v>99.269444429999993</v>
       </c>
       <c r="M5" s="5">
         <f>(C5+D5+E5+F5+G5+H5+I5+J5+K5+L5)/10</f>
-        <v>72.758084257</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="3" t="s">
+        <v>72.758084256999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C6" s="5">
-        <v>58.875952</v>
+        <v>58.875951999999998</v>
       </c>
       <c r="D6" s="6">
-        <v>47.187333</v>
+        <v>47.187333000000002</v>
       </c>
       <c r="E6" s="9">
-        <v>65.063889</v>
+        <v>65.063889000000003</v>
       </c>
       <c r="F6" s="5">
-        <v>89.845</v>
+        <v>89.844999999999999</v>
       </c>
       <c r="G6" s="11">
-        <v>74.038073</v>
+        <v>74.038072999999997</v>
       </c>
       <c r="H6" s="5">
         <v>54.38</v>
       </c>
       <c r="I6" s="5">
-        <v>90.074583</v>
+        <v>90.074583000000004</v>
       </c>
       <c r="J6" s="5">
         <v>64.026111</v>
       </c>
       <c r="K6" s="5">
-        <v>61.148</v>
+        <v>61.148000000000003</v>
       </c>
       <c r="L6" s="5">
-        <v>58.219074</v>
+        <v>58.219073999999999</v>
       </c>
       <c r="M6" s="5">
-        <v>66.29</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
+        <v>66.290000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>74</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C7" s="5">
         <v>58.62</v>
@@ -1622,15 +1033,15 @@
       </c>
       <c r="M7" s="5">
         <f>(C7+D7+E7+F7+G7+H7+I7+J7+K7+L7)/10</f>
-        <v>64.258</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:13">
+        <v>64.257999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="5">
         <v>68.55</v>
@@ -1639,245 +1050,245 @@
         <v>59.38</v>
       </c>
       <c r="E8" s="6">
-        <v>68.7707407</v>
+        <v>68.770740700000005</v>
       </c>
       <c r="F8" s="5">
-        <v>66.2297222</v>
+        <v>66.229722199999998</v>
       </c>
       <c r="G8" s="7">
-        <v>75.18</v>
+        <v>75.180000000000007</v>
       </c>
       <c r="H8" s="5">
         <v>36.64</v>
       </c>
       <c r="I8" s="5">
-        <v>64.13759259</v>
+        <v>64.137592589999997</v>
       </c>
       <c r="J8" s="5">
-        <v>82.94759259</v>
+        <v>82.947592589999999</v>
       </c>
       <c r="K8" s="5">
-        <v>59.803</v>
+        <v>59.802999999999997</v>
       </c>
       <c r="L8" s="5">
-        <v>53.49629517</v>
+        <v>53.496295170000003</v>
       </c>
       <c r="M8" s="5">
         <f>(C8+D8+E8+F8+G8+H8+I8+J8+K8+L8)/10</f>
-        <v>63.513494325</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>63.513494325000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" s="5">
-        <v>64.359583</v>
+        <v>64.359583000000001</v>
       </c>
       <c r="D9" s="6">
         <v>53.994</v>
       </c>
       <c r="E9" s="6">
-        <v>68.537407</v>
+        <v>68.537407000000002</v>
       </c>
       <c r="F9" s="5">
-        <v>72.337222</v>
+        <v>72.337221999999997</v>
       </c>
       <c r="G9" s="11">
-        <v>72.186267</v>
+        <v>72.186267000000001</v>
       </c>
       <c r="H9" s="5">
-        <v>41.825185</v>
+        <v>41.825184999999998</v>
       </c>
       <c r="I9" s="5">
-        <v>80.411667</v>
+        <v>80.411666999999994</v>
       </c>
       <c r="J9" s="5">
-        <v>66.665</v>
+        <v>66.665000000000006</v>
       </c>
       <c r="K9" s="5">
-        <v>53.207667</v>
+        <v>53.207667000000001</v>
       </c>
       <c r="L9" s="5">
-        <v>61.14037</v>
+        <v>61.140369999999997</v>
       </c>
       <c r="M9" s="5">
         <v>63.47</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
+    <row r="10" spans="1:13" ht="18" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C10" s="5">
-        <v>68.73669</v>
+        <v>68.736689999999996</v>
       </c>
       <c r="D10" s="6">
         <v>49.999333</v>
       </c>
       <c r="E10" s="6">
-        <v>64.984259</v>
+        <v>64.984258999999994</v>
       </c>
       <c r="F10" s="5">
-        <v>79.877222</v>
+        <v>79.877222000000003</v>
       </c>
       <c r="G10" s="11">
-        <v>78.969927</v>
+        <v>78.969926999999998</v>
       </c>
       <c r="H10" s="5">
-        <v>38.968704</v>
+        <v>38.968704000000002</v>
       </c>
       <c r="I10" s="5">
-        <v>83.042639</v>
+        <v>83.042638999999994</v>
       </c>
       <c r="J10" s="5">
-        <v>70.138889</v>
+        <v>70.138889000000006</v>
       </c>
       <c r="K10" s="5">
-        <v>65.124333</v>
+        <v>65.124332999999993</v>
       </c>
       <c r="L10" s="5">
-        <v>32.915556</v>
+        <v>32.915556000000002</v>
       </c>
       <c r="M10" s="5">
         <v>63.28</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="1:13">
-      <c r="A11" s="3" t="s">
-        <v>29</v>
+    <row r="11" spans="1:13" ht="18" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" s="5">
-        <v>62.068958</v>
+        <v>62.068958000000002</v>
       </c>
       <c r="D11" s="5">
-        <v>52.298</v>
+        <v>52.298000000000002</v>
       </c>
       <c r="E11" s="5">
-        <v>67.436296</v>
+        <v>67.436295999999999</v>
       </c>
       <c r="F11" s="5">
-        <v>66.237222</v>
+        <v>66.237222000000003</v>
       </c>
       <c r="G11" s="5">
-        <v>70.833023</v>
+        <v>70.833022999999997</v>
       </c>
       <c r="H11" s="5">
-        <v>47.367037</v>
+        <v>47.367037000000003</v>
       </c>
       <c r="I11" s="5">
-        <v>78.672361</v>
+        <v>78.672360999999995</v>
       </c>
       <c r="J11" s="5">
-        <v>68.195</v>
+        <v>68.194999999999993</v>
       </c>
       <c r="K11" s="5">
-        <v>54.086667</v>
+        <v>54.086666999999998</v>
       </c>
       <c r="L11" s="5">
-        <v>59.752037</v>
+        <v>59.752037000000001</v>
       </c>
       <c r="M11" s="5">
         <v>62.69</v>
       </c>
     </row>
-    <row r="12" customHeight="1" spans="1:13">
-      <c r="A12" s="3" t="s">
-        <v>31</v>
+    <row r="12" spans="1:13" ht="18" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" s="5">
-        <v>64.179917</v>
+        <v>64.179917000000003</v>
       </c>
       <c r="D12" s="5">
-        <v>52.124667</v>
+        <v>52.124667000000002</v>
       </c>
       <c r="E12" s="5">
-        <v>62.751667</v>
+        <v>62.751666999999998</v>
       </c>
       <c r="F12" s="5">
-        <v>78.316111</v>
+        <v>78.316111000000006</v>
       </c>
       <c r="G12" s="5">
-        <v>75.39066</v>
+        <v>75.390659999999997</v>
       </c>
       <c r="H12" s="5">
-        <v>38.903889</v>
+        <v>38.903888999999999</v>
       </c>
       <c r="I12" s="5">
-        <v>89.049306</v>
+        <v>89.049306000000001</v>
       </c>
       <c r="J12" s="5">
-        <v>64.721667</v>
+        <v>64.721666999999997</v>
       </c>
       <c r="K12" s="5">
-        <v>60.393667</v>
+        <v>60.393667000000001</v>
       </c>
       <c r="L12" s="5">
-        <v>36.067778</v>
+        <v>36.067777999999997</v>
       </c>
       <c r="M12" s="5">
         <v>62.19</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="1:13">
-      <c r="A13" s="3" t="s">
-        <v>33</v>
+    <row r="13" spans="1:13" ht="18" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>79</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C13" s="5">
-        <v>58.807714</v>
+        <v>58.807713999999997</v>
       </c>
       <c r="D13" s="5">
-        <v>50.146667</v>
+        <v>50.146667000000001</v>
       </c>
       <c r="E13" s="5">
-        <v>68.54537</v>
+        <v>68.545370000000005</v>
       </c>
       <c r="F13" s="5">
-        <v>44.343889</v>
+        <v>44.343888999999997</v>
       </c>
       <c r="G13" s="5">
-        <v>76.605075</v>
+        <v>76.605074999999999</v>
       </c>
       <c r="H13" s="5">
-        <v>56.009444</v>
+        <v>56.009444000000002</v>
       </c>
       <c r="I13" s="5">
-        <v>84.838194</v>
+        <v>84.838194000000001</v>
       </c>
       <c r="J13" s="5">
         <v>77.5</v>
       </c>
       <c r="K13" s="5">
-        <v>46.277</v>
+        <v>46.277000000000001</v>
       </c>
       <c r="L13" s="5">
-        <v>56.079815</v>
+        <v>56.079815000000004</v>
       </c>
       <c r="M13" s="5">
         <v>61.92</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="1:13">
+    <row r="14" spans="1:13" ht="18" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C14" s="5">
         <v>66.03</v>
@@ -1892,7 +1303,7 @@
         <v>56.41</v>
       </c>
       <c r="G14" s="8">
-        <v>74.07</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H14" s="5">
         <v>73.55</v>
@@ -1911,36 +1322,36 @@
       </c>
       <c r="M14" s="5">
         <f>(C14+D14+E14+F14+G14+H14+I14+J14+K14+L14)/10</f>
-        <v>61.643</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:13">
-      <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>61.643000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5">
-        <v>58.351185</v>
+        <v>58.351185000000001</v>
       </c>
       <c r="D15" s="5">
-        <v>49.736</v>
+        <v>49.735999999999997</v>
       </c>
       <c r="E15" s="5">
-        <v>69.513519</v>
+        <v>69.513519000000002</v>
       </c>
       <c r="F15" s="5">
         <v>40.5</v>
       </c>
       <c r="G15" s="5">
-        <v>76.44849</v>
+        <v>76.448490000000007</v>
       </c>
       <c r="H15" s="5">
-        <v>56.087407</v>
+        <v>56.087406999999999</v>
       </c>
       <c r="I15" s="5">
-        <v>83.209861</v>
+        <v>83.209861000000004</v>
       </c>
       <c r="J15" s="5">
         <v>62.5</v>
@@ -1949,18 +1360,18 @@
         <v>56.75</v>
       </c>
       <c r="L15" s="5">
-        <v>45.072407</v>
+        <v>45.072406999999998</v>
       </c>
       <c r="M15" s="5">
         <v>59.82</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="1:13">
+    <row r="16" spans="1:13" ht="18" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5">
         <v>65.11</v>
@@ -1972,7 +1383,7 @@
         <v>72.847037</v>
       </c>
       <c r="F16" s="5">
-        <v>55.7554167</v>
+        <v>55.755416699999998</v>
       </c>
       <c r="G16" s="8">
         <v>78.38</v>
@@ -1981,34 +1392,34 @@
         <v>50.39</v>
       </c>
       <c r="I16" s="5">
-        <v>72.33414815</v>
+        <v>72.334148150000004</v>
       </c>
       <c r="J16" s="5">
-        <v>27.655</v>
+        <v>27.655000000000001</v>
       </c>
       <c r="K16" s="5">
-        <v>70.49</v>
+        <v>70.489999999999995</v>
       </c>
       <c r="L16" s="5">
-        <v>35.72166643</v>
+        <v>35.721666429999999</v>
       </c>
       <c r="M16" s="5">
         <f>(C16+D16+E16+F16+G16+H16+I16+J16+K16+L16)/10</f>
-        <v>59.602326828</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:13">
+        <v>59.602326828000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5">
         <v>54.9</v>
       </c>
       <c r="D17" s="5">
-        <v>39.88</v>
+        <v>39.880000000000003</v>
       </c>
       <c r="E17" s="5">
         <v>66.28</v>
@@ -2032,19 +1443,19 @@
         <v>49.05</v>
       </c>
       <c r="L17" s="5">
-        <v>36.59</v>
+        <v>36.590000000000003</v>
       </c>
       <c r="M17" s="5">
         <f>(C17+D17+E17+F17+G17+H17+I17+J17+K17+L17)/10</f>
-        <v>58.926</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:13">
+        <v>58.926000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5">
         <v>55.55</v>
@@ -2053,122 +1464,122 @@
         <v>58.63</v>
       </c>
       <c r="E18" s="5">
-        <v>68.3685185</v>
+        <v>68.368518499999993</v>
       </c>
       <c r="F18" s="5">
-        <v>43.5127778</v>
+        <v>43.512777800000002</v>
       </c>
       <c r="G18" s="8">
-        <v>76.49</v>
+        <v>76.489999999999995</v>
       </c>
       <c r="H18" s="8">
-        <v>39.38</v>
+        <v>39.380000000000003</v>
       </c>
       <c r="I18" s="5">
-        <v>67.89396296</v>
+        <v>67.893962959999996</v>
       </c>
       <c r="J18" s="5">
         <v>63.49296296</v>
       </c>
       <c r="K18" s="5">
-        <v>53.783</v>
+        <v>53.783000000000001</v>
       </c>
       <c r="L18" s="5">
         <v>55.46629617</v>
       </c>
       <c r="M18" s="5">
         <f>(C18+D18+E18+F18+G18+H18+I18+J18+K18+L18)/10</f>
-        <v>58.256751839</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:13">
-      <c r="A19" s="3" t="s">
-        <v>45</v>
+        <v>58.256751839000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>81</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
-        <v>63.883339</v>
+        <v>63.883338999999999</v>
       </c>
       <c r="D19" s="5">
-        <v>56.840667</v>
+        <v>56.840667000000003</v>
       </c>
       <c r="E19" s="5">
-        <v>61.247222</v>
+        <v>61.247222000000001</v>
       </c>
       <c r="F19" s="5">
-        <v>58.542222</v>
+        <v>58.542222000000002</v>
       </c>
       <c r="G19" s="5">
         <v>76.874319</v>
       </c>
       <c r="H19" s="5">
-        <v>41.972593</v>
+        <v>41.972593000000003</v>
       </c>
       <c r="I19" s="5">
         <v>79.186667</v>
       </c>
       <c r="J19" s="5">
-        <v>36.111111</v>
+        <v>36.111111000000001</v>
       </c>
       <c r="K19" s="5">
-        <v>57.169333</v>
+        <v>57.169333000000002</v>
       </c>
       <c r="L19" s="5">
-        <v>49.715185</v>
+        <v>49.715184999999998</v>
       </c>
       <c r="M19" s="5">
         <v>58.15</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:13">
-      <c r="A20" s="3" t="s">
-        <v>47</v>
+    <row r="20" spans="1:13" ht="18" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>82</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C20" s="5">
-        <v>55.73378</v>
+        <v>55.733780000000003</v>
       </c>
       <c r="D20" s="5">
-        <v>45.861333</v>
+        <v>45.861333000000002</v>
       </c>
       <c r="E20" s="5">
-        <v>57.325</v>
+        <v>57.325000000000003</v>
       </c>
       <c r="F20" s="5">
-        <v>68.940556</v>
+        <v>68.940556000000001</v>
       </c>
       <c r="G20" s="5">
-        <v>64.156207</v>
+        <v>64.156206999999995</v>
       </c>
       <c r="H20" s="5">
-        <v>37.784815</v>
+        <v>37.784815000000002</v>
       </c>
       <c r="I20" s="5">
-        <v>73.036528</v>
+        <v>73.036528000000004</v>
       </c>
       <c r="J20" s="5">
-        <v>63.609444</v>
+        <v>63.609444000000003</v>
       </c>
       <c r="K20" s="5">
-        <v>67.652667</v>
+        <v>67.652666999999994</v>
       </c>
       <c r="L20" s="5">
-        <v>41.903889</v>
+        <v>41.903888999999999</v>
       </c>
       <c r="M20" s="5">
         <v>57.6</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:13">
+    <row r="21" spans="1:13" ht="18" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5">
         <v>61.8</v>
@@ -2177,10 +1588,10 @@
         <v>52.9</v>
       </c>
       <c r="E21" s="5">
-        <v>63.5696296</v>
+        <v>63.569629599999999</v>
       </c>
       <c r="F21" s="5">
-        <v>51.1933333</v>
+        <v>51.193333299999999</v>
       </c>
       <c r="G21" s="8">
         <v>75.36</v>
@@ -2189,28 +1600,28 @@
         <v>38.9</v>
       </c>
       <c r="I21" s="5">
-        <v>79.78040741</v>
+        <v>79.780407409999995</v>
       </c>
       <c r="J21" s="5">
-        <v>49.08648148</v>
+        <v>49.086481480000003</v>
       </c>
       <c r="K21" s="5">
-        <v>60.443</v>
+        <v>60.442999999999998</v>
       </c>
       <c r="L21" s="5">
-        <v>34.96685183</v>
+        <v>34.966851830000003</v>
       </c>
       <c r="M21" s="5">
         <f>(C21+D21+E21+F21+G21+H21+I21+J21+K21+L21)/10</f>
-        <v>56.799970362</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:13">
+        <v>56.799970362000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C22" s="5">
         <v>48.29</v>
@@ -2219,163 +1630,163 @@
         <v>50.23</v>
       </c>
       <c r="E22" s="5">
-        <v>69.8288889</v>
+        <v>69.828888899999995</v>
       </c>
       <c r="F22" s="5">
-        <v>74.4908333</v>
+        <v>74.490833300000006</v>
       </c>
       <c r="G22" s="8">
         <v>63</v>
       </c>
       <c r="H22" s="8">
-        <v>35.38</v>
+        <v>35.380000000000003</v>
       </c>
       <c r="I22" s="5">
-        <v>65.707</v>
+        <v>65.706999999999994</v>
       </c>
       <c r="J22" s="5">
-        <v>37.51537037</v>
+        <v>37.515370369999999</v>
       </c>
       <c r="K22" s="5">
-        <v>42.464</v>
+        <v>42.463999999999999</v>
       </c>
       <c r="L22" s="5">
-        <v>69.97518407</v>
+        <v>69.975184069999997</v>
       </c>
       <c r="M22" s="5">
         <f>(C22+D22+E22+F22+G22+H22+I22+J22+K22+L22)/10</f>
         <v>55.688127664</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:13">
-      <c r="A23" s="3" t="s">
-        <v>53</v>
+    <row r="23" spans="1:13" ht="18" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C23" s="5">
-        <v>58.433131</v>
+        <v>58.433131000000003</v>
       </c>
       <c r="D23" s="5">
-        <v>48.786</v>
+        <v>48.786000000000001</v>
       </c>
       <c r="E23" s="5">
-        <v>68.813889</v>
+        <v>68.813889000000003</v>
       </c>
       <c r="F23" s="5">
-        <v>32.806667</v>
+        <v>32.806666999999997</v>
       </c>
       <c r="G23" s="5">
-        <v>73.239142</v>
+        <v>73.239142000000001</v>
       </c>
       <c r="H23" s="5">
-        <v>53.967037</v>
+        <v>53.967036999999998</v>
       </c>
       <c r="I23" s="5">
-        <v>80.803056</v>
+        <v>80.803055999999998</v>
       </c>
       <c r="J23" s="5">
-        <v>46.943333</v>
+        <v>46.943333000000003</v>
       </c>
       <c r="K23" s="5">
-        <v>36.514667</v>
+        <v>36.514667000000003</v>
       </c>
       <c r="L23" s="5">
-        <v>47.034259</v>
+        <v>47.034258999999999</v>
       </c>
       <c r="M23" s="5">
         <v>54.73</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:13">
-      <c r="A24" s="3" t="s">
-        <v>55</v>
+    <row r="24" spans="1:13" ht="18" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C24" s="5">
-        <v>50.500869</v>
+        <v>50.500869000000002</v>
       </c>
       <c r="D24" s="5">
-        <v>39.832</v>
+        <v>39.832000000000001</v>
       </c>
       <c r="E24" s="5">
-        <v>69.474259</v>
+        <v>69.474259000000004</v>
       </c>
       <c r="F24" s="5">
-        <v>37.096111</v>
+        <v>37.096111000000001</v>
       </c>
       <c r="G24" s="5">
-        <v>66.029099</v>
+        <v>66.029099000000002</v>
       </c>
       <c r="H24" s="5">
-        <v>55.382222</v>
+        <v>55.382221999999999</v>
       </c>
       <c r="I24" s="5">
-        <v>68.4075</v>
+        <v>68.407499999999999</v>
       </c>
       <c r="J24" s="5">
-        <v>57.223333</v>
+        <v>57.223332999999997</v>
       </c>
       <c r="K24" s="5">
-        <v>58.166333</v>
+        <v>58.166333000000002</v>
       </c>
       <c r="L24" s="5">
-        <v>40.86537</v>
+        <v>40.865369999999999</v>
       </c>
       <c r="M24" s="5">
         <v>54.3</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:13">
-      <c r="A25" s="3" t="s">
-        <v>57</v>
+    <row r="25" spans="1:13" ht="18" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C25" s="5">
-        <v>60.116125</v>
+        <v>60.116124999999997</v>
       </c>
       <c r="D25" s="5">
         <v>41.628</v>
       </c>
       <c r="E25" s="5">
-        <v>57.782037</v>
+        <v>57.782037000000003</v>
       </c>
       <c r="F25" s="5">
-        <v>33.773889</v>
+        <v>33.773888999999997</v>
       </c>
       <c r="G25" s="5">
-        <v>75.255737</v>
+        <v>75.255736999999996</v>
       </c>
       <c r="H25" s="5">
-        <v>56.722778</v>
+        <v>56.722777999999998</v>
       </c>
       <c r="I25" s="5">
-        <v>85.025972</v>
+        <v>85.025971999999996</v>
       </c>
       <c r="J25" s="5">
-        <v>32.362222</v>
+        <v>32.362222000000003</v>
       </c>
       <c r="K25" s="5">
         <v>65.55</v>
       </c>
       <c r="L25" s="5">
-        <v>34.14037</v>
+        <v>34.140369999999997</v>
       </c>
       <c r="M25" s="5">
         <v>54.24</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:13">
+    <row r="26" spans="1:13" ht="18" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="C26" s="5">
         <v>58.82</v>
@@ -2384,81 +1795,81 @@
         <v>52.39</v>
       </c>
       <c r="E26" s="5">
-        <v>56.3911111</v>
+        <v>56.391111100000003</v>
       </c>
       <c r="F26" s="5">
         <v>43.3359722</v>
       </c>
       <c r="G26" s="8">
-        <v>71.68</v>
+        <v>71.680000000000007</v>
       </c>
       <c r="H26" s="8">
         <v>55.21</v>
       </c>
       <c r="I26" s="5">
-        <v>71.143</v>
+        <v>71.143000000000001</v>
       </c>
       <c r="J26" s="5">
         <v>35.04092593</v>
       </c>
       <c r="K26" s="5">
-        <v>57.883</v>
+        <v>57.883000000000003</v>
       </c>
       <c r="L26" s="5">
-        <v>33.67759333</v>
+        <v>33.677593330000001</v>
       </c>
       <c r="M26" s="5">
         <f>(C26+D26+E26+F26+G26+H26+I26+J26+K26+L26)/10</f>
-        <v>53.557160256</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:13">
-      <c r="A27" s="3" t="s">
-        <v>61</v>
+        <v>53.557160256000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="C27" s="5">
-        <v>53.877982</v>
+        <v>53.877982000000003</v>
       </c>
       <c r="D27" s="5">
-        <v>50.858</v>
+        <v>50.857999999999997</v>
       </c>
       <c r="E27" s="5">
         <v>63.703519</v>
       </c>
       <c r="F27" s="5">
-        <v>49.772778</v>
+        <v>49.772778000000002</v>
       </c>
       <c r="G27" s="5">
-        <v>75.009933</v>
+        <v>75.009933000000004</v>
       </c>
       <c r="H27" s="5">
-        <v>30.968519</v>
+        <v>30.968519000000001</v>
       </c>
       <c r="I27" s="5">
-        <v>84.2175</v>
+        <v>84.217500000000001</v>
       </c>
       <c r="J27" s="5">
-        <v>30.555556</v>
+        <v>30.555555999999999</v>
       </c>
       <c r="K27" s="5">
-        <v>57.898333</v>
+        <v>57.898333000000001</v>
       </c>
       <c r="L27" s="5">
-        <v>37.031111</v>
+        <v>37.031111000000003</v>
       </c>
       <c r="M27" s="5">
         <v>53.39</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:13">
+    <row r="28" spans="1:13" ht="18" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C28" s="5">
         <v>55.87</v>
@@ -2467,7 +1878,7 @@
         <v>50.37</v>
       </c>
       <c r="E28" s="5">
-        <v>60.1459259</v>
+        <v>60.145925900000002</v>
       </c>
       <c r="F28" s="5">
         <v>33.4108333</v>
@@ -2479,28 +1890,28 @@
         <v>36.31</v>
       </c>
       <c r="I28" s="5">
-        <v>73.49622222</v>
+        <v>73.496222220000007</v>
       </c>
       <c r="J28" s="5">
-        <v>51.80296296</v>
+        <v>51.802962960000002</v>
       </c>
       <c r="K28" s="5">
         <v>56.552</v>
       </c>
       <c r="L28" s="5">
-        <v>34.5887037</v>
+        <v>34.588703700000003</v>
       </c>
       <c r="M28" s="5">
-        <f>(C28+D28+E28+F28+G28+H28+I28+J28+K28+L28)/10</f>
-        <v>52.740664808</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:13">
+        <f t="shared" ref="M28:M35" si="0">(C28+D28+E28+F28+G28+H28+I28+J28+K28+L28)/10</f>
+        <v>52.740664807999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C29" s="5">
         <v>54.81</v>
@@ -2512,7 +1923,7 @@
         <v>58.7740741</v>
       </c>
       <c r="F29" s="5">
-        <v>49.2913889</v>
+        <v>49.291388900000001</v>
       </c>
       <c r="G29" s="8">
         <v>64.16</v>
@@ -2521,28 +1932,28 @@
         <v>29.06</v>
       </c>
       <c r="I29" s="5">
-        <v>71.50922222</v>
+        <v>71.509222219999998</v>
       </c>
       <c r="J29" s="5">
-        <v>35.70981481</v>
+        <v>35.709814809999997</v>
       </c>
       <c r="K29" s="5">
-        <v>58.647</v>
+        <v>58.646999999999998</v>
       </c>
       <c r="L29" s="5">
-        <v>52.319248</v>
+        <v>52.319248000000002</v>
       </c>
       <c r="M29" s="5">
-        <f>(C29+D29+E29+F29+G29+H29+I29+J29+K29+L29)/10</f>
-        <v>52.104074803</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>52.104074803000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="C30" s="5">
         <v>50.12</v>
@@ -2554,7 +1965,7 @@
         <v>59.4325926</v>
       </c>
       <c r="F30" s="5">
-        <v>35.9208333</v>
+        <v>35.920833299999998</v>
       </c>
       <c r="G30" s="8">
         <v>70.47</v>
@@ -2563,28 +1974,28 @@
         <v>31.76</v>
       </c>
       <c r="I30" s="5">
-        <v>69.44740741</v>
+        <v>69.447407409999997</v>
       </c>
       <c r="J30" s="5">
-        <v>39.08703704</v>
+        <v>39.087037039999998</v>
       </c>
       <c r="K30" s="5">
-        <v>53.882</v>
+        <v>53.881999999999998</v>
       </c>
       <c r="L30" s="5">
-        <v>59.69777667</v>
+        <v>59.697776670000003</v>
       </c>
       <c r="M30" s="5">
-        <f>(C30+D30+E30+F30+G30+H30+I30+J30+K30+L30)/10</f>
-        <v>52.097764702</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>52.097764701999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" s="5">
         <v>58.78</v>
@@ -2593,10 +2004,10 @@
         <v>53.89</v>
       </c>
       <c r="E31" s="5">
-        <v>61.9192592</v>
+        <v>61.919259199999999</v>
       </c>
       <c r="F31" s="5">
-        <v>39.5430556</v>
+        <v>39.543055600000002</v>
       </c>
       <c r="G31" s="8">
         <v>74.13</v>
@@ -2605,28 +2016,28 @@
         <v>30.75</v>
       </c>
       <c r="I31" s="5">
-        <v>67.80107407</v>
+        <v>67.801074069999999</v>
       </c>
       <c r="J31" s="5">
         <v>39.48018519</v>
       </c>
       <c r="K31" s="5">
-        <v>54.078</v>
+        <v>54.078000000000003</v>
       </c>
       <c r="L31" s="5">
-        <v>36.19611087</v>
+        <v>36.196110869999998</v>
       </c>
       <c r="M31" s="5">
-        <f>(C31+D31+E31+F31+G31+H31+I31+J31+K31+L31)/10</f>
-        <v>51.656768493</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>51.656768493000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5">
         <v>53.63</v>
@@ -2638,7 +2049,7 @@
         <v>45.6533333</v>
       </c>
       <c r="F32" s="5">
-        <v>57.8005556</v>
+        <v>57.800555600000003</v>
       </c>
       <c r="G32" s="8">
         <v>68.17</v>
@@ -2647,7 +2058,7 @@
         <v>27.79</v>
       </c>
       <c r="I32" s="5">
-        <v>71.16018519</v>
+        <v>71.160185190000007</v>
       </c>
       <c r="J32" s="5">
         <v>46.58666667</v>
@@ -2656,19 +2067,19 @@
         <v>56.16</v>
       </c>
       <c r="L32" s="5">
-        <v>43.06055333</v>
+        <v>43.060553329999998</v>
       </c>
       <c r="M32" s="5">
-        <f>(C32+D32+E32+F32+G32+H32+I32+J32+K32+L32)/10</f>
-        <v>51.165129409</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>51.165129409000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C33" s="5">
         <v>58.96</v>
@@ -2680,7 +2091,7 @@
         <v>59.1774074</v>
       </c>
       <c r="F33" s="5">
-        <v>39.5626389</v>
+        <v>39.562638900000003</v>
       </c>
       <c r="G33" s="8">
         <v>72.09</v>
@@ -2689,28 +2100,28 @@
         <v>41.67</v>
       </c>
       <c r="I33" s="5">
-        <v>64.60440741</v>
+        <v>64.604407409999993</v>
       </c>
       <c r="J33" s="5">
         <v>34.61444444</v>
       </c>
       <c r="K33" s="5">
-        <v>53.596</v>
+        <v>53.595999999999997</v>
       </c>
       <c r="L33" s="5">
-        <v>37.1570359</v>
+        <v>37.157035899999997</v>
       </c>
       <c r="M33" s="5">
-        <f>(C33+D33+E33+F33+G33+H33+I33+J33+K33+L33)/10</f>
-        <v>51.067193405</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:13">
+        <f t="shared" si="0"/>
+        <v>51.067193404999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C34" s="5">
         <v>55.29</v>
@@ -2719,40 +2130,40 @@
         <v>46.26</v>
       </c>
       <c r="E34" s="5">
-        <v>61.4962963</v>
+        <v>61.496296299999997</v>
       </c>
       <c r="F34" s="5">
-        <v>55.7815278</v>
+        <v>55.781527799999999</v>
       </c>
       <c r="G34" s="8">
-        <v>74.07</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="H34" s="8">
         <v>53.12</v>
       </c>
       <c r="I34" s="5">
-        <v>62.05425926</v>
+        <v>62.054259260000002</v>
       </c>
       <c r="J34" s="5">
-        <v>32.17851852</v>
+        <v>32.178518519999997</v>
       </c>
       <c r="K34" s="5">
-        <v>40.199</v>
+        <v>40.198999999999998</v>
       </c>
       <c r="L34" s="5">
         <v>24.78777667</v>
       </c>
       <c r="M34" s="5">
-        <f>(C34+D34+E34+F34+G34+H34+I34+J34+K34+L34)/10</f>
+        <f t="shared" si="0"/>
         <v>50.523737855</v>
       </c>
     </row>
-    <row r="35" customHeight="1" spans="1:13">
+    <row r="35" spans="1:13" ht="18" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C35" s="5">
         <v>55.81</v>
@@ -2761,81 +2172,81 @@
         <v>50.2</v>
       </c>
       <c r="E35" s="5">
-        <v>58.9896296</v>
+        <v>58.989629600000001</v>
       </c>
       <c r="F35" s="5">
-        <v>39.1266667</v>
+        <v>39.126666700000001</v>
       </c>
       <c r="G35" s="8">
         <v>69.31</v>
       </c>
       <c r="H35" s="8">
-        <v>33.23</v>
+        <v>33.229999999999997</v>
       </c>
       <c r="I35" s="5">
-        <v>70.38866667</v>
+        <v>70.388666670000006</v>
       </c>
       <c r="J35" s="5">
-        <v>34.74759259</v>
+        <v>34.747592589999996</v>
       </c>
       <c r="K35" s="5">
-        <v>51.798</v>
+        <v>51.798000000000002</v>
       </c>
       <c r="L35" s="5">
-        <v>39.10499967</v>
+        <v>39.104999669999998</v>
       </c>
       <c r="M35" s="5">
-        <f>(C35+D35+E35+F35+G35+H35+I35+J35+K35+L35)/10</f>
-        <v>50.270555523</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:13">
-      <c r="A36" s="3" t="s">
-        <v>78</v>
+        <f t="shared" si="0"/>
+        <v>50.270555522999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1">
+      <c r="A36" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5">
-        <v>49.887673</v>
+        <v>49.887672999999999</v>
       </c>
       <c r="D36" s="5">
-        <v>41.190667</v>
+        <v>41.190666999999998</v>
       </c>
       <c r="E36" s="5">
-        <v>58.089074</v>
+        <v>58.089073999999997</v>
       </c>
       <c r="F36" s="5">
         <v>30.826667</v>
       </c>
       <c r="G36" s="5">
-        <v>72.770457</v>
+        <v>72.770456999999993</v>
       </c>
       <c r="H36" s="5">
-        <v>31.604074</v>
+        <v>31.604074000000001</v>
       </c>
       <c r="I36" s="5">
-        <v>82.716111</v>
+        <v>82.716110999999998</v>
       </c>
       <c r="J36" s="5">
-        <v>49.443333</v>
+        <v>49.443333000000003</v>
       </c>
       <c r="K36" s="5">
-        <v>50.827333</v>
+        <v>50.827333000000003</v>
       </c>
       <c r="L36" s="5">
-        <v>22.593333</v>
+        <v>22.593333000000001</v>
       </c>
       <c r="M36" s="5">
         <v>48.99</v>
       </c>
     </row>
-    <row r="37" customHeight="1" spans="1:13">
+    <row r="37" spans="1:13" ht="18" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C37" s="5">
         <v>54.06</v>
@@ -2844,10 +2255,10 @@
         <v>48.41</v>
       </c>
       <c r="E37" s="5">
-        <v>58.0185185</v>
+        <v>58.018518499999999</v>
       </c>
       <c r="F37" s="5">
-        <v>37.3698611</v>
+        <v>37.369861100000001</v>
       </c>
       <c r="G37" s="8">
         <v>74.12</v>
@@ -2856,28 +2267,28 @@
         <v>28.45</v>
       </c>
       <c r="I37" s="5">
-        <v>70.57437037</v>
+        <v>70.574370369999997</v>
       </c>
       <c r="J37" s="5">
-        <v>38.49277778</v>
+        <v>38.492777779999997</v>
       </c>
       <c r="K37" s="5">
-        <v>48.268</v>
+        <v>48.268000000000001</v>
       </c>
       <c r="L37" s="5">
-        <v>26.779444</v>
+        <v>26.779444000000002</v>
       </c>
       <c r="M37" s="5">
         <f>(C37+D37+E37+F37+G37+H37+I37+J37+K37+L37)/10</f>
-        <v>48.454297175</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:13">
+        <v>48.454297175000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C38" s="5">
         <v>44.79</v>
@@ -2886,52 +2297,52 @@
         <v>45.77</v>
       </c>
       <c r="E38" s="5">
-        <v>47.4014815</v>
+        <v>47.401481500000003</v>
       </c>
       <c r="F38" s="5">
-        <v>33.9866667</v>
+        <v>33.986666700000001</v>
       </c>
       <c r="G38" s="8">
         <v>64.11</v>
       </c>
       <c r="H38" s="8">
-        <v>39.12</v>
+        <v>39.119999999999997</v>
       </c>
       <c r="I38" s="5">
-        <v>64.83848148</v>
+        <v>64.838481479999999</v>
       </c>
       <c r="J38" s="5">
-        <v>34.16666667</v>
+        <v>34.166666669999998</v>
       </c>
       <c r="K38" s="5">
-        <v>39.462</v>
+        <v>39.462000000000003</v>
       </c>
       <c r="L38" s="5">
-        <v>58.16407296</v>
+        <v>58.164072959999999</v>
       </c>
       <c r="M38" s="5">
         <f>(C38+D38+E38+F38+G38+H38+I38+J38+K38+L38)/10</f>
-        <v>47.180936931</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:13">
+        <v>47.180936930999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C39" s="5">
         <v>46.32</v>
       </c>
       <c r="D39" s="5">
-        <v>40.95</v>
+        <v>40.950000000000003</v>
       </c>
       <c r="E39" s="5">
-        <v>41.4551852</v>
+        <v>41.455185200000003</v>
       </c>
       <c r="F39" s="5">
-        <v>43.3027778</v>
+        <v>43.302777800000001</v>
       </c>
       <c r="G39" s="8">
         <v>74.08</v>
@@ -2940,28 +2351,28 @@
         <v>33.22</v>
       </c>
       <c r="I39" s="5">
-        <v>57.79403704</v>
+        <v>57.794037039999999</v>
       </c>
       <c r="J39" s="5">
-        <v>30.02018519</v>
+        <v>30.020185189999999</v>
       </c>
       <c r="K39" s="5">
         <v>58.14</v>
       </c>
       <c r="L39" s="5">
-        <v>9.272407167</v>
+        <v>9.2724071670000008</v>
       </c>
       <c r="M39" s="5">
         <f>(C39+D39+E39+F39+G39+H39+I39+J39+K39+L39)/10</f>
-        <v>43.4554592397</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:13">
+        <v>43.455459239699998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1">
       <c r="A40" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5">
         <v>41.97</v>
@@ -2970,10 +2381,10 @@
         <v>34.31</v>
       </c>
       <c r="E40" s="5">
-        <v>50.5740741</v>
+        <v>50.574074099999997</v>
       </c>
       <c r="F40" s="5">
-        <v>45.5945833</v>
+        <v>45.594583299999996</v>
       </c>
       <c r="G40" s="8">
         <v>57.82</v>
@@ -2982,28 +2393,28 @@
         <v>24.02</v>
       </c>
       <c r="I40" s="5">
-        <v>57.93707407</v>
+        <v>57.937074070000001</v>
       </c>
       <c r="J40" s="5">
-        <v>34.52888889</v>
+        <v>34.528888889999998</v>
       </c>
       <c r="K40" s="5">
         <v>40.94</v>
       </c>
       <c r="L40" s="5">
-        <v>20.4948147</v>
+        <v>20.494814699999999</v>
       </c>
       <c r="M40" s="5">
         <f>(C40+D40+E40+F40+G40+H40+I40+J40+K40+L40)/10</f>
-        <v>40.818943506</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:13">
+        <v>40.818943505999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1">
       <c r="A41" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5">
         <v>48.28</v>
@@ -3012,44 +2423,44 @@
         <v>42.83</v>
       </c>
       <c r="E41" s="5">
-        <v>49.3959259</v>
+        <v>49.395925900000002</v>
       </c>
       <c r="F41" s="5">
-        <v>24.1451389</v>
+        <v>24.145138899999999</v>
       </c>
       <c r="G41" s="8">
         <v>73.13</v>
       </c>
       <c r="H41" s="5">
-        <v>20.31</v>
+        <v>20.309999999999999</v>
       </c>
       <c r="I41" s="5">
         <v>50.08407407</v>
       </c>
       <c r="J41" s="5">
-        <v>37.59277778</v>
+        <v>37.592777779999999</v>
       </c>
       <c r="K41" s="5">
         <v>39.1</v>
       </c>
       <c r="L41" s="5">
-        <v>14.24870347</v>
+        <v>14.248703470000001</v>
       </c>
       <c r="M41" s="5">
         <f>(C41+D41+E41+F41+G41+H41+I41+J41+K41+L41)/10</f>
-        <v>39.911662012</v>
+        <v>39.911662012000001</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:M41">
-    <sortCondition ref="M2" descending="1"/>
+    <sortCondition descending="1" ref="M2"/>
   </sortState>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://platform.openai.com/docs/models/gpt-4-turbo-and-gpt-4"/>
-    <hyperlink ref="B4" r:id="rId1" display="https://platform.openai.com/docs/models/gpt-4-turbo-and-gpt-4"/>
-    <hyperlink ref="B17" r:id="rId2" display="https://github.com/deepseek-ai/DeepSeek-VL"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C789CEC-C43E-45F3-8A3A-FD90F884A3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4BED4-A577-4C43-AEB3-360553D911C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="3825" windowWidth="15675" windowHeight="11295" xr2:uid="{9446C69F-F3A8-4B45-9C95-C05E3BB3316F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9446C69F-F3A8-4B45-9C95-C05E3BB3316F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1D3643-7168-4E6A-BBFB-4C8F1D7DBC7D}">
   <dimension ref="A1:U17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -700,327 +700,332 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1">
-        <v>6.93</v>
+        <v>6.84</v>
       </c>
       <c r="D2" s="1">
-        <v>7.87</v>
+        <v>7.81</v>
       </c>
       <c r="E2" s="1">
-        <v>6.97</v>
+        <v>6.86</v>
       </c>
       <c r="F2" s="1">
-        <v>7.41</v>
+        <v>7.5</v>
       </c>
       <c r="G2" s="1">
-        <v>8.06</v>
+        <v>8.08</v>
       </c>
       <c r="H2" s="1">
-        <v>7.07</v>
+        <v>7.68</v>
       </c>
       <c r="I2" s="1">
-        <v>7.09</v>
+        <v>7.14</v>
       </c>
       <c r="J2" s="1">
-        <v>7.86</v>
+        <v>7.94</v>
       </c>
       <c r="K2" s="1">
-        <v>7.06</v>
+        <v>7.12</v>
       </c>
       <c r="L2" s="1">
-        <v>8.33</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M2" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="N2" s="1">
-        <v>7.97</v>
+        <v>8.19</v>
       </c>
       <c r="O2" s="1">
-        <v>7.39</v>
+        <v>7.78</v>
       </c>
       <c r="P2" s="1">
-        <v>8.33</v>
+        <v>7.77</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.34</v>
+        <v>7.23</v>
       </c>
       <c r="R2" s="1">
-        <v>7.63</v>
+        <v>7.59</v>
       </c>
       <c r="S2" s="1">
-        <v>8.23</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="T2" s="1">
         <v>7.76</v>
       </c>
-      <c r="U2" s="1">
-        <v>8.0053594771241805</v>
+      <c r="U2">
+        <f>AVERAGE(C2:T2)</f>
+        <v>7.6616666666666662</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
-        <v>6.84</v>
+        <v>6.93</v>
       </c>
       <c r="D3" s="1">
-        <v>7.81</v>
+        <v>7.87</v>
       </c>
       <c r="E3" s="1">
-        <v>6.86</v>
+        <v>6.97</v>
       </c>
       <c r="F3" s="1">
-        <v>7.5</v>
+        <v>7.41</v>
       </c>
       <c r="G3" s="1">
-        <v>8.08</v>
+        <v>8.06</v>
       </c>
       <c r="H3" s="1">
-        <v>7.68</v>
+        <v>7.07</v>
       </c>
       <c r="I3" s="1">
-        <v>7.14</v>
+        <v>7.09</v>
       </c>
       <c r="J3" s="1">
-        <v>7.94</v>
+        <v>7.86</v>
       </c>
       <c r="K3" s="1">
-        <v>7.12</v>
+        <v>7.06</v>
       </c>
       <c r="L3" s="1">
-        <v>8.2899999999999991</v>
+        <v>8.33</v>
       </c>
       <c r="M3" s="1">
-        <v>8.1199999999999992</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="N3" s="1">
-        <v>8.19</v>
+        <v>7.97</v>
       </c>
       <c r="O3" s="1">
-        <v>7.78</v>
+        <v>7.39</v>
       </c>
       <c r="P3" s="1">
-        <v>7.77</v>
+        <v>8.33</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.23</v>
+        <v>7.34</v>
       </c>
       <c r="R3" s="1">
-        <v>7.59</v>
+        <v>7.63</v>
       </c>
       <c r="S3" s="1">
-        <v>8.2100000000000009</v>
+        <v>8.23</v>
       </c>
       <c r="T3" s="1">
         <v>7.76</v>
       </c>
-      <c r="U3" s="1">
-        <v>7.9854901960784304</v>
+      <c r="U3">
+        <f>AVERAGE(C3:T3)</f>
+        <v>7.6305555555555555</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1">
-        <v>6.73</v>
+        <v>6.82</v>
       </c>
       <c r="D4" s="1">
-        <v>6.74</v>
+        <v>7.75</v>
       </c>
       <c r="E4" s="1">
-        <v>6.67</v>
+        <v>6.88</v>
       </c>
       <c r="F4" s="1">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="G4" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="H4" s="1">
-        <v>7.48</v>
+        <v>7.6</v>
       </c>
       <c r="I4" s="1">
-        <v>6.93</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1">
-        <v>7.63</v>
+        <v>7.8</v>
       </c>
       <c r="K4" s="1">
-        <v>6.9</v>
+        <v>7.01</v>
       </c>
       <c r="L4" s="1">
-        <v>8.1300000000000008</v>
+        <v>8.08</v>
       </c>
       <c r="M4" s="1">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="N4" s="1">
-        <v>8.06</v>
+        <v>7.87</v>
       </c>
       <c r="O4" s="1">
-        <v>7.14</v>
+        <v>7.28</v>
       </c>
       <c r="P4" s="1">
-        <v>6.95</v>
+        <v>7.75</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="R4" s="1">
-        <v>7.29</v>
+        <v>7.37</v>
       </c>
       <c r="S4" s="1">
-        <v>7.98</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="T4" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="U4" s="1">
-        <v>7.9761818181818196</v>
+        <v>7.65</v>
+      </c>
+      <c r="U4">
+        <f>AVERAGE(C4:T4)</f>
+        <v>7.5355555555555567</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1">
-        <v>6.75</v>
+        <v>6.8</v>
       </c>
       <c r="D5" s="1">
-        <v>6.75</v>
+        <v>7.73</v>
       </c>
       <c r="E5" s="1">
         <v>6.85</v>
       </c>
       <c r="F5" s="1">
-        <v>7.33</v>
+        <v>7.37</v>
       </c>
       <c r="G5" s="1">
-        <v>7.96</v>
+        <v>7.91</v>
       </c>
       <c r="H5" s="1">
-        <v>7.96</v>
+        <v>7.95</v>
       </c>
       <c r="I5" s="1">
-        <v>6.85</v>
+        <v>6.93</v>
       </c>
       <c r="J5" s="1">
-        <v>7.96</v>
+        <v>7.75</v>
       </c>
       <c r="K5" s="1">
-        <v>6.82</v>
+        <v>6.91</v>
       </c>
       <c r="L5" s="1">
+        <v>8</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="S5" s="1">
         <v>7.95</v>
       </c>
-      <c r="M5" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="N5" s="1">
-        <v>8.0399999999999991</v>
-      </c>
-      <c r="O5" s="1">
-        <v>7.18</v>
-      </c>
-      <c r="P5" s="1">
-        <v>7.76</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>7.21</v>
-      </c>
-      <c r="R5" s="1">
-        <v>7.18</v>
-      </c>
-      <c r="S5" s="1">
-        <v>7.9</v>
-      </c>
       <c r="T5" s="1">
-        <v>7.49</v>
-      </c>
-      <c r="U5" s="1">
-        <v>7.8313333333333404</v>
+        <v>7.52</v>
+      </c>
+      <c r="U5">
+        <f>AVERAGE(C5:T5)</f>
+        <v>7.4727777777777771</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="F6" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="G6" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="H6" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I6" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="K6" s="1">
         <v>6.82</v>
       </c>
-      <c r="D6" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="E6" s="1">
-        <v>6.88</v>
-      </c>
-      <c r="F6" s="1">
-        <v>7.44</v>
-      </c>
-      <c r="G6" s="1">
-        <v>8</v>
-      </c>
-      <c r="H6" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="I6" s="1">
-        <v>7</v>
-      </c>
-      <c r="J6" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7.01</v>
-      </c>
       <c r="L6" s="1">
-        <v>8.08</v>
+        <v>7.95</v>
       </c>
       <c r="M6" s="1">
-        <v>8.01</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="N6" s="1">
-        <v>7.87</v>
+        <v>8.0399999999999991</v>
       </c>
       <c r="O6" s="1">
-        <v>7.28</v>
+        <v>7.18</v>
       </c>
       <c r="P6" s="1">
-        <v>7.75</v>
+        <v>7.76</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.28</v>
+        <v>7.21</v>
       </c>
       <c r="R6" s="1">
-        <v>7.37</v>
+        <v>7.18</v>
       </c>
       <c r="S6" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.9</v>
       </c>
       <c r="T6" s="1">
-        <v>7.65</v>
-      </c>
-      <c r="U6" s="1">
-        <v>7.7784967320261504</v>
+        <v>7.49</v>
+      </c>
+      <c r="U6">
+        <f>AVERAGE(C6:T6)</f>
+        <v>7.4438888888888908</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
@@ -1084,528 +1089,537 @@
       <c r="T7" s="1">
         <v>7.59</v>
       </c>
-      <c r="U7" s="1">
-        <v>7.7309803921568596</v>
+      <c r="U7">
+        <f>AVERAGE(C7:T7)</f>
+        <v>7.4350000000000005</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>6.66</v>
+        <v>6.81</v>
       </c>
       <c r="D8" s="1">
-        <v>7.53</v>
+        <v>7.73</v>
       </c>
       <c r="E8" s="1">
-        <v>6.68</v>
+        <v>6.84</v>
       </c>
       <c r="F8" s="1">
-        <v>7.3</v>
+        <v>7.33</v>
       </c>
       <c r="G8" s="1">
-        <v>7.87</v>
+        <v>7.83</v>
       </c>
       <c r="H8" s="1">
-        <v>7.47</v>
+        <v>7.95</v>
       </c>
       <c r="I8" s="1">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
       <c r="J8" s="1">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="K8" s="1">
-        <v>6.83</v>
+        <v>7.07</v>
       </c>
       <c r="L8" s="1">
-        <v>8.07</v>
+        <v>7.99</v>
       </c>
       <c r="M8" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="P8" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="R8" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="S8" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="N8" s="1">
-        <v>7.93</v>
-      </c>
-      <c r="O8" s="1">
-        <v>7.08</v>
-      </c>
-      <c r="P8" s="1">
-        <v>7.53</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>7.03</v>
-      </c>
-      <c r="R8" s="1">
-        <v>7.31</v>
-      </c>
-      <c r="S8" s="1">
-        <v>7.93</v>
-      </c>
       <c r="T8" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="U8" s="1">
-        <v>7.6839215686274498</v>
+        <v>7.61</v>
+      </c>
+      <c r="U8">
+        <f>AVERAGE(C8:T8)</f>
+        <v>7.4155555555555548</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" t="s">
-        <v>33</v>
+        <v>42</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="1">
         <v>6.66</v>
       </c>
       <c r="D9" s="1">
-        <v>7.55</v>
+        <v>7.53</v>
       </c>
       <c r="E9" s="1">
-        <v>6.65</v>
+        <v>6.68</v>
       </c>
       <c r="F9" s="1">
-        <v>7.32</v>
+        <v>7.3</v>
       </c>
       <c r="G9" s="1">
-        <v>7.89</v>
+        <v>7.87</v>
       </c>
       <c r="H9" s="1">
-        <v>7.49</v>
+        <v>7.47</v>
       </c>
       <c r="I9" s="1">
         <v>6.87</v>
       </c>
       <c r="J9" s="1">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="K9" s="1">
-        <v>6.82</v>
+        <v>6.83</v>
       </c>
       <c r="L9" s="1">
+        <v>8.07</v>
+      </c>
+      <c r="M9" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="M9" s="1">
-        <v>7.97</v>
-      </c>
       <c r="N9" s="1">
-        <v>8.1999999999999993</v>
+        <v>7.93</v>
       </c>
       <c r="O9" s="1">
-        <v>7.01</v>
+        <v>7.08</v>
       </c>
       <c r="P9" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="S9" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="T9" s="1">
         <v>7.55</v>
       </c>
-      <c r="Q9" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="R9" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="S9" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="T9" s="1">
-        <v>7.56</v>
-      </c>
-      <c r="U9" s="1">
-        <v>7.6822875816993497</v>
+      <c r="U9">
+        <f>AVERAGE(C9:T9)</f>
+        <v>7.4049999999999994</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
       </c>
       <c r="C10" s="1">
-        <v>6.8</v>
+        <v>6.66</v>
       </c>
       <c r="D10" s="1">
-        <v>7.73</v>
+        <v>7.55</v>
       </c>
       <c r="E10" s="1">
-        <v>6.85</v>
+        <v>6.65</v>
       </c>
       <c r="F10" s="1">
-        <v>7.37</v>
+        <v>7.32</v>
       </c>
       <c r="G10" s="1">
-        <v>7.91</v>
+        <v>7.89</v>
       </c>
       <c r="H10" s="1">
-        <v>7.95</v>
+        <v>7.49</v>
       </c>
       <c r="I10" s="1">
-        <v>6.93</v>
+        <v>6.87</v>
       </c>
       <c r="J10" s="1">
-        <v>7.75</v>
+        <v>7.5</v>
       </c>
       <c r="K10" s="1">
-        <v>6.91</v>
+        <v>6.82</v>
       </c>
       <c r="L10" s="1">
-        <v>8</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="M10" s="1">
-        <v>7.99</v>
+        <v>7.97</v>
       </c>
       <c r="N10" s="1">
-        <v>7.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="O10" s="1">
-        <v>7.12</v>
+        <v>7.01</v>
       </c>
       <c r="P10" s="1">
-        <v>7.61</v>
+        <v>7.55</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.1</v>
+        <v>6.99</v>
       </c>
       <c r="R10" s="1">
-        <v>7.22</v>
+        <v>7.25</v>
       </c>
       <c r="S10" s="1">
         <v>7.95</v>
       </c>
       <c r="T10" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="U10" s="1">
-        <v>7.6201307189542504</v>
+        <v>7.56</v>
+      </c>
+      <c r="U10">
+        <f>AVERAGE(C10:T10)</f>
+        <v>7.4044444444444446</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="1">
-        <v>6.71</v>
+        <v>6.89</v>
       </c>
       <c r="D11" s="1">
-        <v>6.7</v>
+        <v>7.62</v>
       </c>
       <c r="E11" s="1">
-        <v>6.6</v>
+        <v>7.32</v>
       </c>
       <c r="F11" s="1">
+        <v>7.07</v>
+      </c>
+      <c r="G11" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="K11" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7.65</v>
+      </c>
+      <c r="N11" s="1">
+        <v>7.58</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="P11" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>7.32</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="S11" s="1">
+        <v>7.45</v>
+      </c>
+      <c r="T11" s="1">
         <v>7.35</v>
       </c>
-      <c r="G11" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="H11" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="I11" s="1">
-        <v>6.93</v>
-      </c>
-      <c r="J11" s="1">
-        <v>7.73</v>
-      </c>
-      <c r="K11" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="L11" s="1">
-        <v>8.06</v>
-      </c>
-      <c r="M11" s="1">
-        <v>8.02</v>
-      </c>
-      <c r="N11" s="1">
-        <v>7.87</v>
-      </c>
-      <c r="O11" s="1">
-        <v>7.06</v>
-      </c>
-      <c r="P11" s="1">
-        <v>6.73</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>7.04</v>
-      </c>
-      <c r="R11" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="S11" s="1">
-        <v>7.94</v>
-      </c>
-      <c r="T11" s="1">
-        <v>7.56</v>
-      </c>
-      <c r="U11" s="1">
-        <v>7.6130065359477204</v>
+      <c r="U11">
+        <f>AVERAGE(C11:T11)</f>
+        <v>7.391111111111111</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1">
-        <v>6.81</v>
+        <v>6.73</v>
       </c>
       <c r="D12" s="1">
-        <v>7.73</v>
+        <v>6.74</v>
       </c>
       <c r="E12" s="1">
-        <v>6.84</v>
+        <v>6.67</v>
       </c>
       <c r="F12" s="1">
-        <v>7.33</v>
+        <v>7.39</v>
       </c>
       <c r="G12" s="1">
-        <v>7.83</v>
+        <v>7.93</v>
       </c>
       <c r="H12" s="1">
-        <v>7.95</v>
+        <v>7.48</v>
       </c>
       <c r="I12" s="1">
-        <v>6.97</v>
+        <v>6.93</v>
       </c>
       <c r="J12" s="1">
-        <v>7</v>
+        <v>7.63</v>
       </c>
       <c r="K12" s="1">
-        <v>7.07</v>
+        <v>6.9</v>
       </c>
       <c r="L12" s="1">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="M12" s="1">
         <v>7.99</v>
       </c>
-      <c r="M12" s="1">
-        <v>7.92</v>
-      </c>
       <c r="N12" s="1">
-        <v>7.75</v>
+        <v>8.06</v>
       </c>
       <c r="O12" s="1">
-        <v>6.98</v>
+        <v>7.14</v>
       </c>
       <c r="P12" s="1">
-        <v>6.93</v>
+        <v>6.95</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.37</v>
+        <v>7.25</v>
       </c>
       <c r="R12" s="1">
-        <v>7.35</v>
+        <v>7.29</v>
       </c>
       <c r="S12" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.98</v>
       </c>
       <c r="T12" s="1">
-        <v>7.61</v>
-      </c>
-      <c r="U12" s="1">
-        <v>7.5935947712418299</v>
+        <v>7.55</v>
+      </c>
+      <c r="U12">
+        <f>AVERAGE(C12:T12)</f>
+        <v>7.3744444444444452</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
-        <v>6.89</v>
+        <v>6.71</v>
       </c>
       <c r="D13" s="1">
-        <v>7.62</v>
+        <v>6.7</v>
       </c>
       <c r="E13" s="1">
-        <v>7.32</v>
+        <v>6.6</v>
       </c>
       <c r="F13" s="1">
-        <v>7.07</v>
+        <v>7.35</v>
       </c>
       <c r="G13" s="1">
-        <v>7.75</v>
+        <v>7.99</v>
       </c>
       <c r="H13" s="1">
-        <v>7.24</v>
+        <v>7.95</v>
       </c>
       <c r="I13" s="1">
-        <v>7.38</v>
+        <v>6.93</v>
       </c>
       <c r="J13" s="1">
-        <v>8.1199999999999992</v>
+        <v>7.73</v>
       </c>
       <c r="K13" s="1">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="L13" s="1">
-        <v>7.02</v>
+        <v>8.06</v>
       </c>
       <c r="M13" s="1">
-        <v>7.65</v>
+        <v>8.02</v>
       </c>
       <c r="N13" s="1">
-        <v>7.58</v>
+        <v>7.87</v>
       </c>
       <c r="O13" s="1">
-        <v>7.24</v>
+        <v>7.06</v>
       </c>
       <c r="P13" s="1">
-        <v>7.49</v>
+        <v>6.73</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.32</v>
+        <v>7.04</v>
       </c>
       <c r="R13" s="1">
-        <v>6.95</v>
+        <v>7.2</v>
       </c>
       <c r="S13" s="1">
-        <v>7.45</v>
+        <v>7.94</v>
       </c>
       <c r="T13" s="1">
-        <v>7.35</v>
-      </c>
-      <c r="U13" s="1">
-        <v>7.3899346405228803</v>
+        <v>7.56</v>
+      </c>
+      <c r="U13">
+        <f>AVERAGE(C13:T13)</f>
+        <v>7.352222222222224</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
-        <v>6.67</v>
+        <v>6.81</v>
       </c>
       <c r="D14" s="1">
-        <v>7.42</v>
+        <v>7.51</v>
       </c>
       <c r="E14" s="1">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="F14" s="1">
-        <v>7.11</v>
+        <v>7.19</v>
       </c>
       <c r="G14" s="1">
-        <v>7.78</v>
+        <v>7.93</v>
       </c>
       <c r="H14" s="1">
-        <v>7.28</v>
+        <v>7.25</v>
       </c>
       <c r="I14" s="1">
-        <v>7.25</v>
+        <v>6.92</v>
       </c>
       <c r="J14" s="1">
-        <v>7.95</v>
+        <v>7.55</v>
       </c>
       <c r="K14" s="1">
-        <v>7.47</v>
+        <v>7.16</v>
       </c>
       <c r="L14" s="1">
-        <v>6.89</v>
+        <v>7.14</v>
       </c>
       <c r="M14" s="1">
-        <v>7.48</v>
+        <v>7.74</v>
       </c>
       <c r="N14" s="1">
-        <v>7.14</v>
+        <v>7.37</v>
       </c>
       <c r="O14" s="1">
-        <v>6.95</v>
+        <v>6.86</v>
       </c>
       <c r="P14" s="1">
-        <v>7.6</v>
+        <v>7.51</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.03</v>
+        <v>7.31</v>
       </c>
       <c r="R14" s="1">
-        <v>6.85</v>
+        <v>6.86</v>
       </c>
       <c r="S14" s="1">
-        <v>7.72</v>
+        <v>7.51</v>
       </c>
       <c r="T14" s="1">
-        <v>7.23</v>
-      </c>
-      <c r="U14" s="1">
-        <v>7.2996732026143798</v>
+        <v>7.32</v>
+      </c>
+      <c r="U14">
+        <f>AVERAGE(C14:T14)</f>
+        <v>7.2911111111111113</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
-        <v>6.81</v>
+        <v>6.67</v>
       </c>
       <c r="D15" s="1">
-        <v>7.51</v>
+        <v>7.42</v>
       </c>
       <c r="E15" s="1">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="F15" s="1">
-        <v>7.19</v>
+        <v>7.11</v>
       </c>
       <c r="G15" s="1">
-        <v>7.93</v>
+        <v>7.78</v>
       </c>
       <c r="H15" s="1">
+        <v>7.28</v>
+      </c>
+      <c r="I15" s="1">
         <v>7.25</v>
       </c>
-      <c r="I15" s="1">
-        <v>6.92</v>
-      </c>
       <c r="J15" s="1">
-        <v>7.55</v>
+        <v>7.95</v>
       </c>
       <c r="K15" s="1">
-        <v>7.16</v>
+        <v>7.47</v>
       </c>
       <c r="L15" s="1">
+        <v>6.89</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="N15" s="1">
         <v>7.14</v>
       </c>
-      <c r="M15" s="1">
-        <v>7.74</v>
-      </c>
-      <c r="N15" s="1">
-        <v>7.37</v>
-      </c>
       <c r="O15" s="1">
-        <v>6.86</v>
+        <v>6.95</v>
       </c>
       <c r="P15" s="1">
-        <v>7.51</v>
+        <v>7.6</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.31</v>
+        <v>7.03</v>
       </c>
       <c r="R15" s="1">
-        <v>6.86</v>
+        <v>6.85</v>
       </c>
       <c r="S15" s="1">
-        <v>7.51</v>
+        <v>7.72</v>
       </c>
       <c r="T15" s="1">
-        <v>7.32</v>
-      </c>
-      <c r="U15" s="1">
-        <v>7.2966013071895404</v>
+        <v>7.23</v>
+      </c>
+      <c r="U15">
+        <f>AVERAGE(C15:T15)</f>
+        <v>7.2788888888888899</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
@@ -1669,8 +1683,9 @@
       <c r="T16" s="1">
         <v>7.02</v>
       </c>
-      <c r="U16" s="1">
-        <v>7.2190196078431397</v>
+      <c r="U16">
+        <f>AVERAGE(C16:T16)</f>
+        <v>7.2783333333333324</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
@@ -1734,8 +1749,9 @@
       <c r="T17" s="1">
         <v>7.16</v>
       </c>
-      <c r="U17" s="1">
-        <v>7.1252287581699303</v>
+      <c r="U17">
+        <f>AVERAGE(C17:T17)</f>
+        <v>7.2094444444444434</v>
       </c>
     </row>
   </sheetData>
@@ -1744,21 +1760,21 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B15" r:id="rId1" location="gpt-4o" xr:uid="{0997D88B-3375-450F-8A10-AEF2FB640F41}"/>
+    <hyperlink ref="B14" r:id="rId1" location="gpt-4o" xr:uid="{0997D88B-3375-450F-8A10-AEF2FB640F41}"/>
     <hyperlink ref="B17" r:id="rId2" location="o3-mini" xr:uid="{1E2A9B23-3C92-441F-893E-4CE2235AEA6D}"/>
-    <hyperlink ref="B13" r:id="rId3" xr:uid="{6D3EEF93-7FB1-4EC8-B1EF-6D4CD8049146}"/>
-    <hyperlink ref="B11" r:id="rId4" xr:uid="{47A95057-9974-4510-8A6E-426D739569C0}"/>
-    <hyperlink ref="B12" r:id="rId5" xr:uid="{BBD62E9C-FC2E-4AE7-8D14-8E7A445F26C8}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{40B52382-DF42-4E21-9E1C-E435D7C4F97E}"/>
-    <hyperlink ref="B2" r:id="rId7" xr:uid="{14DC9941-A792-4F3D-9B18-39C81E735EBB}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{CC1C1F1A-42FE-464C-B4DD-7138B86019F2}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{6D3EEF93-7FB1-4EC8-B1EF-6D4CD8049146}"/>
+    <hyperlink ref="B13" r:id="rId4" xr:uid="{47A95057-9974-4510-8A6E-426D739569C0}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{BBD62E9C-FC2E-4AE7-8D14-8E7A445F26C8}"/>
+    <hyperlink ref="B2" r:id="rId6" xr:uid="{40B52382-DF42-4E21-9E1C-E435D7C4F97E}"/>
+    <hyperlink ref="B3" r:id="rId7" xr:uid="{14DC9941-A792-4F3D-9B18-39C81E735EBB}"/>
+    <hyperlink ref="B6" r:id="rId8" xr:uid="{CC1C1F1A-42FE-464C-B4DD-7138B86019F2}"/>
     <hyperlink ref="B7" r:id="rId9" xr:uid="{E9A0ED8D-EB12-406D-8D67-8881C42C772E}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{EB043BF1-6879-4A0D-9F2E-27DEF8C28A0F}"/>
-    <hyperlink ref="B6" r:id="rId11" xr:uid="{F48100C5-3DC7-4E76-BF3B-CB58F401AC83}"/>
+    <hyperlink ref="B5" r:id="rId10" xr:uid="{EB043BF1-6879-4A0D-9F2E-27DEF8C28A0F}"/>
+    <hyperlink ref="B4" r:id="rId11" xr:uid="{F48100C5-3DC7-4E76-BF3B-CB58F401AC83}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{0B792714-E9FE-4E79-96EA-BDADA0B01CC3}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{ED63C1C9-67F0-41EF-BDF6-BF9D08EDA4C6}"/>
-    <hyperlink ref="B8" r:id="rId14" xr:uid="{3A2449EF-1870-4A05-B7AE-9B3BBEDB2D52}"/>
-    <hyperlink ref="B4" r:id="rId15" xr:uid="{2693BC5E-9EE1-43DE-B44E-4386D5FDC696}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{ED63C1C9-67F0-41EF-BDF6-BF9D08EDA4C6}"/>
+    <hyperlink ref="B9" r:id="rId14" xr:uid="{3A2449EF-1870-4A05-B7AE-9B3BBEDB2D52}"/>
+    <hyperlink ref="B12" r:id="rId15" xr:uid="{2693BC5E-9EE1-43DE-B44E-4386D5FDC696}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/scores.xlsx
+++ b/data/scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STUDY\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE4BED4-A577-4C43-AEB3-360553D911C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E351929B-E51B-4B05-AE4E-CA0C258DB52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9446C69F-F3A8-4B45-9C95-C05E3BB3316F}"/>
+    <workbookView xWindow="12120" yWindow="1950" windowWidth="15675" windowHeight="11295" xr2:uid="{9446C69F-F3A8-4B45-9C95-C05E3BB3316F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>A.I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,10 +173,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Avg.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">ChatGLM2-6B </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Yi-6B-Chat </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -242,6 +234,30 @@
   </si>
   <si>
     <t xml:space="preserve">o3-mini </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeepSeek-R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QwQ-32B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/Qwen/QwQ-32B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://huggingface.co/deepseek-ai/DeepSeek-R1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ChatGLM3-6B </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,17 +641,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A1D3643-7168-4E6A-BBFB-4C8F1D7DBC7D}">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="20" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>18</v>
@@ -695,799 +714,787 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1">
-        <v>6.84</v>
+        <v>6.81</v>
       </c>
       <c r="D2" s="1">
-        <v>7.81</v>
+        <v>7.51</v>
       </c>
       <c r="E2" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="G2" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="H2" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="J2" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="L2" s="1">
+        <v>7.14</v>
+      </c>
+      <c r="M2" s="1">
+        <v>7.74</v>
+      </c>
+      <c r="N2" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="O2" s="1">
         <v>6.86</v>
       </c>
-      <c r="F2" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8.08</v>
-      </c>
-      <c r="H2" s="1">
-        <v>7.68</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7.14</v>
-      </c>
-      <c r="J2" s="1">
-        <v>7.94</v>
-      </c>
-      <c r="K2" s="1">
-        <v>7.12</v>
-      </c>
-      <c r="L2" s="1">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8.1199999999999992</v>
-      </c>
-      <c r="N2" s="1">
-        <v>8.19</v>
-      </c>
-      <c r="O2" s="1">
-        <v>7.78</v>
-      </c>
       <c r="P2" s="1">
-        <v>7.77</v>
+        <v>7.51</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.23</v>
+        <v>7.31</v>
       </c>
       <c r="R2" s="1">
-        <v>7.59</v>
+        <v>6.86</v>
       </c>
       <c r="S2" s="1">
-        <v>8.2100000000000009</v>
+        <v>7.51</v>
       </c>
       <c r="T2" s="1">
-        <v>7.76</v>
+        <v>7.32</v>
       </c>
       <c r="U2">
-        <f>AVERAGE(C2:T2)</f>
-        <v>7.6616666666666662</v>
+        <v>52.06</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
-        <v>6.93</v>
+        <v>6.89</v>
       </c>
       <c r="D3" s="1">
-        <v>7.87</v>
+        <v>7.62</v>
       </c>
       <c r="E3" s="1">
-        <v>6.97</v>
+        <v>7.32</v>
       </c>
       <c r="F3" s="1">
-        <v>7.41</v>
+        <v>7.07</v>
       </c>
       <c r="G3" s="1">
-        <v>8.06</v>
+        <v>7.75</v>
       </c>
       <c r="H3" s="1">
-        <v>7.07</v>
+        <v>7.24</v>
       </c>
       <c r="I3" s="1">
-        <v>7.09</v>
+        <v>7.38</v>
       </c>
       <c r="J3" s="1">
-        <v>7.86</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="K3" s="1">
-        <v>7.06</v>
+        <v>7.6</v>
       </c>
       <c r="L3" s="1">
-        <v>8.33</v>
+        <v>7.02</v>
       </c>
       <c r="M3" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.65</v>
       </c>
       <c r="N3" s="1">
-        <v>7.97</v>
+        <v>7.58</v>
       </c>
       <c r="O3" s="1">
-        <v>7.39</v>
+        <v>7.24</v>
       </c>
       <c r="P3" s="1">
-        <v>8.33</v>
+        <v>7.49</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.34</v>
+        <v>7.32</v>
       </c>
       <c r="R3" s="1">
-        <v>7.63</v>
+        <v>6.95</v>
       </c>
       <c r="S3" s="1">
-        <v>8.23</v>
+        <v>7.45</v>
       </c>
       <c r="T3" s="1">
-        <v>7.76</v>
+        <v>7.35</v>
       </c>
       <c r="U3">
-        <f>AVERAGE(C3:T3)</f>
-        <v>7.6305555555555555</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C4" s="1">
-        <v>6.82</v>
+        <v>6.96</v>
       </c>
       <c r="D4" s="1">
-        <v>7.75</v>
+        <v>7.57</v>
       </c>
       <c r="E4" s="1">
-        <v>6.88</v>
+        <v>7.29</v>
       </c>
       <c r="F4" s="1">
-        <v>7.44</v>
+        <v>7</v>
       </c>
       <c r="G4" s="1">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="H4" s="1">
-        <v>7.6</v>
+        <v>7.21</v>
       </c>
       <c r="I4" s="1">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="J4" s="1">
-        <v>7.8</v>
+        <v>8.02</v>
       </c>
       <c r="K4" s="1">
-        <v>7.01</v>
+        <v>7.5</v>
       </c>
       <c r="L4" s="1">
-        <v>8.08</v>
+        <v>7.1</v>
       </c>
       <c r="M4" s="1">
-        <v>8.01</v>
+        <v>7.7</v>
       </c>
       <c r="N4" s="1">
-        <v>7.87</v>
+        <v>7.34</v>
       </c>
       <c r="O4" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="P4" s="1">
+        <v>7.19</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="R4" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="S4" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="T4" s="1">
         <v>7.28</v>
       </c>
-      <c r="P4" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>7.28</v>
-      </c>
-      <c r="R4" s="1">
-        <v>7.37</v>
-      </c>
-      <c r="S4" s="1">
-        <v>8.0500000000000007</v>
-      </c>
-      <c r="T4" s="1">
-        <v>7.65</v>
-      </c>
       <c r="U4">
-        <f>AVERAGE(C4:T4)</f>
-        <v>7.5355555555555567</v>
+        <v>52.29</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C5" s="1">
-        <v>6.8</v>
+        <v>6.85</v>
       </c>
       <c r="D5" s="1">
-        <v>7.73</v>
+        <v>7.49</v>
       </c>
       <c r="E5" s="1">
+        <v>7.23</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7.03</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="I5" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="K5" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7</v>
+      </c>
+      <c r="M5" s="1">
+        <v>7.57</v>
+      </c>
+      <c r="N5" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="P5" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="R5" s="1">
         <v>6.85</v>
       </c>
-      <c r="F5" s="1">
-        <v>7.37</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7.91</v>
-      </c>
-      <c r="H5" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="I5" s="1">
-        <v>6.93</v>
-      </c>
-      <c r="J5" s="1">
-        <v>7.75</v>
-      </c>
-      <c r="K5" s="1">
-        <v>6.91</v>
-      </c>
-      <c r="L5" s="1">
-        <v>8</v>
-      </c>
-      <c r="M5" s="1">
-        <v>7.99</v>
-      </c>
-      <c r="N5" s="1">
-        <v>7.8</v>
-      </c>
-      <c r="O5" s="1">
-        <v>7.12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>7.61</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>7.1</v>
-      </c>
-      <c r="R5" s="1">
-        <v>7.22</v>
-      </c>
       <c r="S5" s="1">
-        <v>7.95</v>
+        <v>7.24</v>
       </c>
       <c r="T5" s="1">
-        <v>7.52</v>
+        <v>7.19</v>
       </c>
       <c r="U5">
-        <f>AVERAGE(C5:T5)</f>
-        <v>7.4727777777777771</v>
+        <v>53.17</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1">
-        <v>6.75</v>
+        <v>6.64</v>
       </c>
       <c r="D6" s="1">
-        <v>6.75</v>
+        <v>7.33</v>
       </c>
       <c r="E6" s="1">
-        <v>6.85</v>
+        <v>7.07</v>
       </c>
       <c r="F6" s="1">
-        <v>7.33</v>
+        <v>7.08</v>
       </c>
       <c r="G6" s="1">
-        <v>7.96</v>
+        <v>7.77</v>
       </c>
       <c r="H6" s="1">
-        <v>7.96</v>
+        <v>7.22</v>
       </c>
       <c r="I6" s="1">
-        <v>6.85</v>
+        <v>7.25</v>
       </c>
       <c r="J6" s="1">
-        <v>7.96</v>
+        <v>7.95</v>
       </c>
       <c r="K6" s="1">
-        <v>6.82</v>
+        <v>7.46</v>
       </c>
       <c r="L6" s="1">
         <v>7.95</v>
       </c>
       <c r="M6" s="1">
-        <v>8.0500000000000007</v>
+        <v>7.52</v>
       </c>
       <c r="N6" s="1">
-        <v>8.0399999999999991</v>
+        <v>7.66</v>
       </c>
       <c r="O6" s="1">
-        <v>7.18</v>
+        <v>6.95</v>
       </c>
       <c r="P6" s="1">
-        <v>7.76</v>
+        <v>7.21</v>
       </c>
       <c r="Q6" s="1">
+        <v>6.8</v>
+      </c>
+      <c r="R6" s="1">
+        <v>6.92</v>
+      </c>
+      <c r="S6" s="1">
         <v>7.21</v>
       </c>
-      <c r="R6" s="1">
-        <v>7.18</v>
-      </c>
-      <c r="S6" s="1">
-        <v>7.9</v>
-      </c>
       <c r="T6" s="1">
-        <v>7.49</v>
+        <v>7.02</v>
       </c>
       <c r="U6">
-        <f>AVERAGE(C6:T6)</f>
-        <v>7.4438888888888908</v>
+        <v>54.82</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
-        <v>6.73</v>
+        <v>6.67</v>
       </c>
       <c r="D7" s="1">
-        <v>7.63</v>
+        <v>7.42</v>
       </c>
       <c r="E7" s="1">
-        <v>6.73</v>
+        <v>7.2</v>
       </c>
       <c r="F7" s="1">
-        <v>6.9</v>
+        <v>7.11</v>
       </c>
       <c r="G7" s="1">
-        <v>7.93</v>
+        <v>7.78</v>
       </c>
       <c r="H7" s="1">
-        <v>7.68</v>
+        <v>7.28</v>
       </c>
       <c r="I7" s="1">
-        <v>6.9</v>
+        <v>7.25</v>
       </c>
       <c r="J7" s="1">
-        <v>7.73</v>
+        <v>7.95</v>
       </c>
       <c r="K7" s="1">
-        <v>6.88</v>
+        <v>7.47</v>
       </c>
       <c r="L7" s="1">
-        <v>8.0399999999999991</v>
+        <v>6.89</v>
       </c>
       <c r="M7" s="1">
-        <v>8.0399999999999991</v>
+        <v>7.48</v>
       </c>
       <c r="N7" s="1">
-        <v>7.88</v>
+        <v>7.14</v>
       </c>
       <c r="O7" s="1">
-        <v>7.12</v>
+        <v>6.95</v>
       </c>
       <c r="P7" s="1">
-        <v>7.68</v>
+        <v>7.6</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.11</v>
+        <v>7.03</v>
       </c>
       <c r="R7" s="1">
-        <v>7.26</v>
+        <v>6.85</v>
       </c>
       <c r="S7" s="1">
-        <v>8</v>
+        <v>7.72</v>
       </c>
       <c r="T7" s="1">
-        <v>7.59</v>
+        <v>7.23</v>
       </c>
       <c r="U7">
-        <f>AVERAGE(C7:T7)</f>
-        <v>7.4350000000000005</v>
+        <v>55.26</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1">
-        <v>6.81</v>
+        <v>6.93</v>
       </c>
       <c r="D8" s="1">
-        <v>7.73</v>
+        <v>7.87</v>
       </c>
       <c r="E8" s="1">
-        <v>6.84</v>
+        <v>6.97</v>
       </c>
       <c r="F8" s="1">
-        <v>7.33</v>
+        <v>7.41</v>
       </c>
       <c r="G8" s="1">
-        <v>7.83</v>
+        <v>8.06</v>
       </c>
       <c r="H8" s="1">
-        <v>7.95</v>
+        <v>7.07</v>
       </c>
       <c r="I8" s="1">
-        <v>6.97</v>
+        <v>7.09</v>
       </c>
       <c r="J8" s="1">
-        <v>7</v>
+        <v>7.86</v>
       </c>
       <c r="K8" s="1">
-        <v>7.07</v>
+        <v>7.06</v>
       </c>
       <c r="L8" s="1">
-        <v>7.99</v>
+        <v>8.33</v>
       </c>
       <c r="M8" s="1">
-        <v>7.92</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="N8" s="1">
-        <v>7.75</v>
+        <v>7.97</v>
       </c>
       <c r="O8" s="1">
-        <v>6.98</v>
+        <v>7.39</v>
       </c>
       <c r="P8" s="1">
-        <v>6.93</v>
+        <v>8.33</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.37</v>
+        <v>7.34</v>
       </c>
       <c r="R8" s="1">
-        <v>7.35</v>
+        <v>7.63</v>
       </c>
       <c r="S8" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.23</v>
       </c>
       <c r="T8" s="1">
-        <v>7.61</v>
+        <v>7.76</v>
       </c>
       <c r="U8">
-        <f>AVERAGE(C8:T8)</f>
-        <v>7.4155555555555548</v>
+        <v>55.77</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
-        <v>6.66</v>
+        <v>6.84</v>
       </c>
       <c r="D9" s="1">
-        <v>7.53</v>
+        <v>7.81</v>
       </c>
       <c r="E9" s="1">
-        <v>6.68</v>
+        <v>6.86</v>
       </c>
       <c r="F9" s="1">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="G9" s="1">
-        <v>7.87</v>
+        <v>8.08</v>
       </c>
       <c r="H9" s="1">
-        <v>7.47</v>
+        <v>7.68</v>
       </c>
       <c r="I9" s="1">
-        <v>6.87</v>
+        <v>7.14</v>
       </c>
       <c r="J9" s="1">
-        <v>7.6</v>
+        <v>7.94</v>
       </c>
       <c r="K9" s="1">
-        <v>6.83</v>
+        <v>7.12</v>
       </c>
       <c r="L9" s="1">
-        <v>8.07</v>
+        <v>8.2899999999999991</v>
       </c>
       <c r="M9" s="1">
-        <v>8.0500000000000007</v>
+        <v>8.1199999999999992</v>
       </c>
       <c r="N9" s="1">
-        <v>7.93</v>
+        <v>8.19</v>
       </c>
       <c r="O9" s="1">
-        <v>7.08</v>
+        <v>7.78</v>
       </c>
       <c r="P9" s="1">
-        <v>7.53</v>
+        <v>7.77</v>
       </c>
       <c r="Q9" s="1">
-        <v>7.03</v>
+        <v>7.23</v>
       </c>
       <c r="R9" s="1">
-        <v>7.31</v>
+        <v>7.59</v>
       </c>
       <c r="S9" s="1">
-        <v>7.93</v>
+        <v>8.2100000000000009</v>
       </c>
       <c r="T9" s="1">
-        <v>7.55</v>
+        <v>7.76</v>
       </c>
       <c r="U9">
-        <f>AVERAGE(C9:T9)</f>
-        <v>7.4049999999999994</v>
+        <v>55.97</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="1">
-        <v>6.66</v>
+        <v>6.81</v>
       </c>
       <c r="D10" s="1">
-        <v>7.55</v>
+        <v>7.73</v>
       </c>
       <c r="E10" s="1">
-        <v>6.65</v>
+        <v>6.84</v>
       </c>
       <c r="F10" s="1">
-        <v>7.32</v>
+        <v>7.33</v>
       </c>
       <c r="G10" s="1">
-        <v>7.89</v>
+        <v>7.83</v>
       </c>
       <c r="H10" s="1">
-        <v>7.49</v>
+        <v>7.95</v>
       </c>
       <c r="I10" s="1">
-        <v>6.87</v>
+        <v>6.97</v>
       </c>
       <c r="J10" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K10" s="1">
-        <v>6.82</v>
+        <v>7.07</v>
       </c>
       <c r="L10" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="M10" s="1">
+        <v>7.92</v>
+      </c>
+      <c r="N10" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="O10" s="1">
+        <v>6.98</v>
+      </c>
+      <c r="P10" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="R10" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="S10" s="1">
         <v>8.0500000000000007</v>
       </c>
-      <c r="M10" s="1">
-        <v>7.97</v>
-      </c>
-      <c r="N10" s="1">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="O10" s="1">
-        <v>7.01</v>
-      </c>
-      <c r="P10" s="1">
-        <v>7.55</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>6.99</v>
-      </c>
-      <c r="R10" s="1">
-        <v>7.25</v>
-      </c>
-      <c r="S10" s="1">
-        <v>7.95</v>
-      </c>
       <c r="T10" s="1">
-        <v>7.56</v>
+        <v>7.61</v>
       </c>
       <c r="U10">
-        <f>AVERAGE(C10:T10)</f>
-        <v>7.4044444444444446</v>
+        <v>56.96</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>6.89</v>
+        <v>6.73</v>
       </c>
       <c r="D11" s="1">
-        <v>7.62</v>
+        <v>6.74</v>
       </c>
       <c r="E11" s="1">
-        <v>7.32</v>
+        <v>6.67</v>
       </c>
       <c r="F11" s="1">
-        <v>7.07</v>
+        <v>7.39</v>
       </c>
       <c r="G11" s="1">
-        <v>7.75</v>
+        <v>7.93</v>
       </c>
       <c r="H11" s="1">
-        <v>7.24</v>
+        <v>7.48</v>
       </c>
       <c r="I11" s="1">
-        <v>7.38</v>
+        <v>6.93</v>
       </c>
       <c r="J11" s="1">
-        <v>8.1199999999999992</v>
+        <v>7.63</v>
       </c>
       <c r="K11" s="1">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="L11" s="1">
-        <v>7.02</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="M11" s="1">
-        <v>7.65</v>
+        <v>7.99</v>
       </c>
       <c r="N11" s="1">
-        <v>7.58</v>
+        <v>8.06</v>
       </c>
       <c r="O11" s="1">
-        <v>7.24</v>
+        <v>7.14</v>
       </c>
       <c r="P11" s="1">
-        <v>7.49</v>
+        <v>6.95</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.32</v>
+        <v>7.25</v>
       </c>
       <c r="R11" s="1">
-        <v>6.95</v>
+        <v>7.29</v>
       </c>
       <c r="S11" s="1">
-        <v>7.45</v>
+        <v>7.98</v>
       </c>
       <c r="T11" s="1">
-        <v>7.35</v>
+        <v>7.55</v>
       </c>
       <c r="U11">
-        <f>AVERAGE(C11:T11)</f>
-        <v>7.391111111111111</v>
+        <v>64.95</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
-        <v>6.73</v>
+        <v>6.82</v>
       </c>
       <c r="D12" s="1">
-        <v>6.74</v>
+        <v>7.75</v>
       </c>
       <c r="E12" s="1">
-        <v>6.67</v>
+        <v>6.88</v>
       </c>
       <c r="F12" s="1">
-        <v>7.39</v>
+        <v>7.44</v>
       </c>
       <c r="G12" s="1">
-        <v>7.93</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
-        <v>7.48</v>
+        <v>7.6</v>
       </c>
       <c r="I12" s="1">
-        <v>6.93</v>
+        <v>7</v>
       </c>
       <c r="J12" s="1">
-        <v>7.63</v>
+        <v>7.8</v>
       </c>
       <c r="K12" s="1">
-        <v>6.9</v>
+        <v>7.01</v>
       </c>
       <c r="L12" s="1">
-        <v>8.1300000000000008</v>
+        <v>8.08</v>
       </c>
       <c r="M12" s="1">
-        <v>7.99</v>
+        <v>8.01</v>
       </c>
       <c r="N12" s="1">
-        <v>8.06</v>
+        <v>7.87</v>
       </c>
       <c r="O12" s="1">
-        <v>7.14</v>
+        <v>7.28</v>
       </c>
       <c r="P12" s="1">
-        <v>6.95</v>
+        <v>7.75</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="R12" s="1">
-        <v>7.29</v>
+        <v>7.37</v>
       </c>
       <c r="S12" s="1">
-        <v>7.98</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="T12" s="1">
-        <v>7.55</v>
+        <v>7.65</v>
       </c>
       <c r="U12">
-        <f>AVERAGE(C12:T12)</f>
-        <v>7.3744444444444452</v>
+        <v>64.989999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
-        <v>6.71</v>
+        <v>6.66</v>
       </c>
       <c r="D13" s="1">
-        <v>6.7</v>
+        <v>7.53</v>
       </c>
       <c r="E13" s="1">
-        <v>6.6</v>
+        <v>6.68</v>
       </c>
       <c r="F13" s="1">
-        <v>7.35</v>
+        <v>7.3</v>
       </c>
       <c r="G13" s="1">
-        <v>7.99</v>
+        <v>7.87</v>
       </c>
       <c r="H13" s="1">
-        <v>7.95</v>
+        <v>7.47</v>
       </c>
       <c r="I13" s="1">
-        <v>6.93</v>
+        <v>6.87</v>
       </c>
       <c r="J13" s="1">
-        <v>7.73</v>
+        <v>7.6</v>
       </c>
       <c r="K13" s="1">
-        <v>6.9</v>
+        <v>6.83</v>
       </c>
       <c r="L13" s="1">
-        <v>8.06</v>
+        <v>8.07</v>
       </c>
       <c r="M13" s="1">
-        <v>8.02</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="N13" s="1">
-        <v>7.87</v>
+        <v>7.93</v>
       </c>
       <c r="O13" s="1">
-        <v>7.06</v>
+        <v>7.08</v>
       </c>
       <c r="P13" s="1">
-        <v>6.73</v>
+        <v>7.53</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.04</v>
+        <v>7.03</v>
       </c>
       <c r="R13" s="1">
-        <v>7.2</v>
+        <v>7.31</v>
       </c>
       <c r="S13" s="1">
-        <v>7.94</v>
+        <v>7.93</v>
       </c>
       <c r="T13" s="1">
-        <v>7.56</v>
+        <v>7.55</v>
       </c>
       <c r="U13">
-        <f>AVERAGE(C13:T13)</f>
-        <v>7.352222222222224</v>
+        <v>65.040000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
@@ -1495,286 +1502,414 @@
         <v>49</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
-        <v>6.81</v>
+        <v>6.66</v>
       </c>
       <c r="D14" s="1">
-        <v>7.51</v>
+        <v>7.28</v>
       </c>
       <c r="E14" s="1">
-        <v>7.3</v>
+        <v>7.12</v>
       </c>
       <c r="F14" s="1">
-        <v>7.19</v>
+        <v>7.14</v>
       </c>
       <c r="G14" s="1">
-        <v>7.93</v>
+        <v>7.79</v>
       </c>
       <c r="H14" s="1">
-        <v>7.25</v>
+        <v>7.28</v>
       </c>
       <c r="I14" s="1">
-        <v>6.92</v>
+        <v>7.27</v>
       </c>
       <c r="J14" s="1">
-        <v>7.55</v>
+        <v>7.92</v>
       </c>
       <c r="K14" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6.96</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7.49</v>
+      </c>
+      <c r="N14" s="1">
+        <v>7.13</v>
+      </c>
+      <c r="O14" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="P14" s="1">
+        <v>7.09</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>7.02</v>
+      </c>
+      <c r="R14" s="1">
+        <v>6.83</v>
+      </c>
+      <c r="S14" s="1">
+        <v>7.24</v>
+      </c>
+      <c r="T14" s="1">
         <v>7.16</v>
       </c>
-      <c r="L14" s="1">
-        <v>7.14</v>
-      </c>
-      <c r="M14" s="1">
-        <v>7.74</v>
-      </c>
-      <c r="N14" s="1">
-        <v>7.37</v>
-      </c>
-      <c r="O14" s="1">
-        <v>6.86</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.51</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>7.31</v>
-      </c>
-      <c r="R14" s="1">
-        <v>6.86</v>
-      </c>
-      <c r="S14" s="1">
-        <v>7.51</v>
-      </c>
-      <c r="T14" s="1">
-        <v>7.32</v>
-      </c>
       <c r="U14">
-        <f>AVERAGE(C14:T14)</f>
-        <v>7.2911111111111113</v>
+        <v>65.790000000000006</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="1">
-        <v>6.67</v>
+        <v>6.8</v>
       </c>
       <c r="D15" s="1">
-        <v>7.42</v>
+        <v>7.73</v>
       </c>
       <c r="E15" s="1">
-        <v>7.2</v>
+        <v>6.85</v>
       </c>
       <c r="F15" s="1">
-        <v>7.11</v>
+        <v>7.37</v>
       </c>
       <c r="G15" s="1">
-        <v>7.78</v>
+        <v>7.91</v>
       </c>
       <c r="H15" s="1">
-        <v>7.28</v>
+        <v>7.95</v>
       </c>
       <c r="I15" s="1">
-        <v>7.25</v>
+        <v>6.93</v>
       </c>
       <c r="J15" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="K15" s="1">
+        <v>6.91</v>
+      </c>
+      <c r="L15" s="1">
+        <v>8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="N15" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="O15" s="1">
+        <v>7.12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>7.22</v>
+      </c>
+      <c r="S15" s="1">
         <v>7.95</v>
       </c>
-      <c r="K15" s="1">
-        <v>7.47</v>
-      </c>
-      <c r="L15" s="1">
-        <v>6.89</v>
-      </c>
-      <c r="M15" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="N15" s="1">
-        <v>7.14</v>
-      </c>
-      <c r="O15" s="1">
-        <v>6.95</v>
-      </c>
-      <c r="P15" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>7.03</v>
-      </c>
-      <c r="R15" s="1">
-        <v>6.85</v>
-      </c>
-      <c r="S15" s="1">
-        <v>7.72</v>
-      </c>
       <c r="T15" s="1">
-        <v>7.23</v>
+        <v>7.52</v>
       </c>
       <c r="U15">
-        <f>AVERAGE(C15:T15)</f>
-        <v>7.2788888888888899</v>
+        <v>67.7</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" s="1">
-        <v>6.64</v>
+        <v>6.66</v>
       </c>
       <c r="D16" s="1">
-        <v>7.33</v>
+        <v>7.55</v>
       </c>
       <c r="E16" s="1">
-        <v>7.07</v>
+        <v>6.65</v>
       </c>
       <c r="F16" s="1">
-        <v>7.08</v>
+        <v>7.32</v>
       </c>
       <c r="G16" s="1">
-        <v>7.77</v>
+        <v>7.89</v>
       </c>
       <c r="H16" s="1">
-        <v>7.22</v>
+        <v>7.49</v>
       </c>
       <c r="I16" s="1">
+        <v>6.87</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="K16" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="L16" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="M16" s="1">
+        <v>7.97</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="O16" s="1">
+        <v>7.01</v>
+      </c>
+      <c r="P16" s="1">
+        <v>7.55</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="R16" s="1">
         <v>7.25</v>
       </c>
-      <c r="J16" s="1">
+      <c r="S16" s="1">
         <v>7.95</v>
       </c>
-      <c r="K16" s="1">
-        <v>7.46</v>
-      </c>
-      <c r="L16" s="1">
-        <v>7.95</v>
-      </c>
-      <c r="M16" s="1">
-        <v>7.52</v>
-      </c>
-      <c r="N16" s="1">
-        <v>7.66</v>
-      </c>
-      <c r="O16" s="1">
-        <v>6.95</v>
-      </c>
-      <c r="P16" s="1">
-        <v>7.21</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>6.8</v>
-      </c>
-      <c r="R16" s="1">
-        <v>6.92</v>
-      </c>
-      <c r="S16" s="1">
-        <v>7.21</v>
-      </c>
       <c r="T16" s="1">
-        <v>7.02</v>
+        <v>7.56</v>
       </c>
       <c r="U16">
-        <f>AVERAGE(C16:T16)</f>
-        <v>7.2783333333333324</v>
+        <v>67.73</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
-        <v>6.66</v>
+        <v>6.71</v>
       </c>
       <c r="D17" s="1">
-        <v>7.28</v>
+        <v>6.7</v>
       </c>
       <c r="E17" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7.99</v>
+      </c>
+      <c r="H17" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6.93</v>
+      </c>
+      <c r="J17" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="L17" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="M17" s="1">
+        <v>8.02</v>
+      </c>
+      <c r="N17" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="O17" s="1">
+        <v>7.06</v>
+      </c>
+      <c r="P17" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>7.04</v>
+      </c>
+      <c r="R17" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="S17" s="1">
+        <v>7.94</v>
+      </c>
+      <c r="T17" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="U17">
+        <v>68.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.63</v>
+      </c>
+      <c r="E18" s="1">
+        <v>6.73</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7.93</v>
+      </c>
+      <c r="H18" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="I18" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="J18" s="1">
+        <v>7.73</v>
+      </c>
+      <c r="K18" s="1">
+        <v>6.88</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="M18" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="N18" s="1">
+        <v>7.88</v>
+      </c>
+      <c r="O18" s="1">
         <v>7.12</v>
       </c>
-      <c r="F17" s="1">
-        <v>7.14</v>
-      </c>
-      <c r="G17" s="1">
-        <v>7.79</v>
-      </c>
-      <c r="H17" s="1">
-        <v>7.28</v>
-      </c>
-      <c r="I17" s="1">
-        <v>7.27</v>
-      </c>
-      <c r="J17" s="1">
-        <v>7.92</v>
-      </c>
-      <c r="K17" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="L17" s="1">
-        <v>6.96</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="P18" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>7.11</v>
+      </c>
+      <c r="R18" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="S18" s="1">
+        <v>8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>7.59</v>
+      </c>
+      <c r="U18">
+        <v>68.760000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7.33</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="H19" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.85</v>
+      </c>
+      <c r="J19" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="K19" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="L19" s="1">
+        <v>7.95</v>
+      </c>
+      <c r="M19" s="1">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="N19" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="O19" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="P19" s="1">
+        <v>7.76</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>7.21</v>
+      </c>
+      <c r="R19" s="1">
+        <v>7.18</v>
+      </c>
+      <c r="S19" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="T19" s="1">
         <v>7.49</v>
       </c>
-      <c r="N17" s="1">
-        <v>7.13</v>
-      </c>
-      <c r="O17" s="1">
-        <v>6.91</v>
-      </c>
-      <c r="P17" s="1">
-        <v>7.09</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>7.02</v>
-      </c>
-      <c r="R17" s="1">
-        <v>6.83</v>
-      </c>
-      <c r="S17" s="1">
-        <v>7.24</v>
-      </c>
-      <c r="T17" s="1">
-        <v>7.16</v>
-      </c>
-      <c r="U17">
-        <f>AVERAGE(C17:T17)</f>
-        <v>7.2094444444444434</v>
+      <c r="U19">
+        <v>69.599999999999994</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U17">
-    <sortCondition descending="1" ref="U2:U17"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U19">
+    <sortCondition ref="U2:U19"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" location="gpt-4o" xr:uid="{0997D88B-3375-450F-8A10-AEF2FB640F41}"/>
-    <hyperlink ref="B17" r:id="rId2" location="o3-mini" xr:uid="{1E2A9B23-3C92-441F-893E-4CE2235AEA6D}"/>
-    <hyperlink ref="B11" r:id="rId3" xr:uid="{6D3EEF93-7FB1-4EC8-B1EF-6D4CD8049146}"/>
-    <hyperlink ref="B13" r:id="rId4" xr:uid="{47A95057-9974-4510-8A6E-426D739569C0}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{BBD62E9C-FC2E-4AE7-8D14-8E7A445F26C8}"/>
-    <hyperlink ref="B2" r:id="rId6" xr:uid="{40B52382-DF42-4E21-9E1C-E435D7C4F97E}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{14DC9941-A792-4F3D-9B18-39C81E735EBB}"/>
-    <hyperlink ref="B6" r:id="rId8" xr:uid="{CC1C1F1A-42FE-464C-B4DD-7138B86019F2}"/>
-    <hyperlink ref="B7" r:id="rId9" xr:uid="{E9A0ED8D-EB12-406D-8D67-8881C42C772E}"/>
-    <hyperlink ref="B5" r:id="rId10" xr:uid="{EB043BF1-6879-4A0D-9F2E-27DEF8C28A0F}"/>
-    <hyperlink ref="B4" r:id="rId11" xr:uid="{F48100C5-3DC7-4E76-BF3B-CB58F401AC83}"/>
-    <hyperlink ref="B16" r:id="rId12" xr:uid="{0B792714-E9FE-4E79-96EA-BDADA0B01CC3}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{ED63C1C9-67F0-41EF-BDF6-BF9D08EDA4C6}"/>
-    <hyperlink ref="B9" r:id="rId14" xr:uid="{3A2449EF-1870-4A05-B7AE-9B3BBEDB2D52}"/>
-    <hyperlink ref="B12" r:id="rId15" xr:uid="{2693BC5E-9EE1-43DE-B44E-4386D5FDC696}"/>
+    <hyperlink ref="B2" r:id="rId1" location="gpt-4o" xr:uid="{0997D88B-3375-450F-8A10-AEF2FB640F41}"/>
+    <hyperlink ref="B14" r:id="rId2" location="o3-mini" xr:uid="{1E2A9B23-3C92-441F-893E-4CE2235AEA6D}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6D3EEF93-7FB1-4EC8-B1EF-6D4CD8049146}"/>
+    <hyperlink ref="B17" r:id="rId4" xr:uid="{47A95057-9974-4510-8A6E-426D739569C0}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{BBD62E9C-FC2E-4AE7-8D14-8E7A445F26C8}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{40B52382-DF42-4E21-9E1C-E435D7C4F97E}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{14DC9941-A792-4F3D-9B18-39C81E735EBB}"/>
+    <hyperlink ref="B19" r:id="rId8" xr:uid="{CC1C1F1A-42FE-464C-B4DD-7138B86019F2}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{E9A0ED8D-EB12-406D-8D67-8881C42C772E}"/>
+    <hyperlink ref="B15" r:id="rId10" xr:uid="{EB043BF1-6879-4A0D-9F2E-27DEF8C28A0F}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{F48100C5-3DC7-4E76-BF3B-CB58F401AC83}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{0B792714-E9FE-4E79-96EA-BDADA0B01CC3}"/>
+    <hyperlink ref="B7" r:id="rId13" xr:uid="{ED63C1C9-67F0-41EF-BDF6-BF9D08EDA4C6}"/>
+    <hyperlink ref="B13" r:id="rId14" xr:uid="{3A2449EF-1870-4A05-B7AE-9B3BBEDB2D52}"/>
+    <hyperlink ref="B11" r:id="rId15" xr:uid="{2693BC5E-9EE1-43DE-B44E-4386D5FDC696}"/>
+    <hyperlink ref="B5" r:id="rId16" xr:uid="{04174D46-C32A-4C4D-B0D3-C8BAC155BFCA}"/>
+    <hyperlink ref="B4" r:id="rId17" xr:uid="{0B08C2E7-DCA3-45F9-A791-354EB0A4FB4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
